--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622206.5182412623</v>
+        <v>620600.6427108609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8773452.701649603</v>
+        <v>8773452.701649604</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.631190787142913</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>234.1865775009919</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.7897314716959</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>281.4204412852649</v>
+        <v>281.4204412852648</v>
       </c>
       <c r="H11" t="n">
         <v>179.7541375993905</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.22031640604278</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>79.7701242648522</v>
+        <v>79.77012426485214</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>120.0356600810325</v>
       </c>
       <c r="V11" t="n">
-        <v>196.6659442001193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>107.8222226997631</v>
+        <v>238.6447864084534</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.151624386038</v>
+        <v>255.1516243860379</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.44686937985173</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>57.94339704205815</v>
+        <v>41.62218471830008</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>26.55876618538528</v>
       </c>
       <c r="F12" t="n">
-        <v>13.98289812336827</v>
+        <v>13.98289812336822</v>
       </c>
       <c r="G12" t="n">
-        <v>4.761220658731309</v>
+        <v>4.761220658731252</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.89022697185281</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.275709104097473</v>
       </c>
       <c r="S12" t="n">
         <v>143.8959572312332</v>
       </c>
       <c r="T12" t="n">
-        <v>63.04855620782286</v>
+        <v>63.0485562078228</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8429621971285</v>
+        <v>94.75664792711285</v>
       </c>
       <c r="V12" t="n">
-        <v>101.7142728794097</v>
+        <v>101.7142728794096</v>
       </c>
       <c r="W12" t="n">
-        <v>120.608668890904</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.68667093346187</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>83.64188472694828</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.74566591192169</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>36.16050682861223</v>
+        <v>36.16050682861217</v>
       </c>
       <c r="D13" t="n">
-        <v>17.52915874819675</v>
+        <v>17.52915874819669</v>
       </c>
       <c r="E13" t="n">
-        <v>15.34764837655356</v>
+        <v>15.34764837655351</v>
       </c>
       <c r="F13" t="n">
-        <v>14.33473375291564</v>
+        <v>14.33473375291558</v>
       </c>
       <c r="G13" t="n">
-        <v>35.65048383636903</v>
+        <v>35.65048383636897</v>
       </c>
       <c r="H13" t="n">
-        <v>19.99004674171036</v>
+        <v>19.9900467417103</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.688565595031974</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>202.1596393076441</v>
+        <v>71.07332503762841</v>
       </c>
       <c r="T13" t="n">
-        <v>91.50050071758552</v>
+        <v>91.50050071758547</v>
       </c>
       <c r="U13" t="n">
-        <v>211.2302515103379</v>
+        <v>211.2302515103385</v>
       </c>
       <c r="V13" t="n">
-        <v>121.0513290538124</v>
+        <v>121.0513290538123</v>
       </c>
       <c r="W13" t="n">
-        <v>155.4366840665754</v>
+        <v>155.4366840665753</v>
       </c>
       <c r="X13" t="n">
-        <v>94.62334111902155</v>
+        <v>94.62334111902149</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.49833908207918</v>
+        <v>87.49833908207913</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.647527393465</v>
+        <v>251.6475273934649</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>223.5967273506674</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.7897314716959</v>
+        <v>275.7897314716957</v>
       </c>
       <c r="G14" t="n">
-        <v>204.6547941119098</v>
+        <v>281.4204412852648</v>
       </c>
       <c r="H14" t="n">
         <v>179.7541375993905</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>120.0356600810325</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>26.79542009627946</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.151624386038</v>
+        <v>255.1516243860379</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.44686937985173</v>
+        <v>35.44686937985168</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>41.62218471830008</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>101.4932464011346</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>4.761220658731309</v>
+        <v>4.761220658731253</v>
       </c>
       <c r="H15" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.275709104097487</v>
       </c>
       <c r="S15" t="n">
-        <v>143.8959572312332</v>
+        <v>12.80964296121758</v>
       </c>
       <c r="T15" t="n">
-        <v>63.04855620782286</v>
+        <v>63.0485562078228</v>
       </c>
       <c r="U15" t="n">
-        <v>94.75664792711291</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V15" t="n">
-        <v>101.7142728794097</v>
+        <v>101.7142728794096</v>
       </c>
       <c r="W15" t="n">
-        <v>120.608668890904</v>
+        <v>167.5443990824167</v>
       </c>
       <c r="X15" t="n">
-        <v>74.68667093346187</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.59638150728875</v>
+        <v>74.5963815072887</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.74566591192169</v>
+        <v>48.74566591192163</v>
       </c>
       <c r="C16" t="n">
-        <v>36.16050682861223</v>
+        <v>36.16050682861217</v>
       </c>
       <c r="D16" t="n">
-        <v>17.52915874819675</v>
+        <v>17.52915874819669</v>
       </c>
       <c r="E16" t="n">
-        <v>15.34764837655356</v>
+        <v>15.34764837655351</v>
       </c>
       <c r="F16" t="n">
-        <v>14.33473375291564</v>
+        <v>14.33473375291558</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7367981063846</v>
+        <v>35.65048383636897</v>
       </c>
       <c r="H16" t="n">
-        <v>80.74455864708189</v>
+        <v>19.99004674171031</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07332503762845</v>
+        <v>71.07332503762841</v>
       </c>
       <c r="T16" t="n">
-        <v>91.50050071758552</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U16" t="n">
         <v>155.1643051999985</v>
       </c>
       <c r="V16" t="n">
-        <v>121.0513290538124</v>
+        <v>181.8058409591841</v>
       </c>
       <c r="W16" t="n">
-        <v>155.4366840665754</v>
+        <v>155.4366840665753</v>
       </c>
       <c r="X16" t="n">
-        <v>94.62334111902155</v>
+        <v>94.62334111902149</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.49833908207918</v>
+        <v>87.49833908207913</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.8013995851668</v>
+        <v>91.65760767114936</v>
       </c>
       <c r="C17" t="n">
-        <v>127.3404496926938</v>
+        <v>127.3404496926936</v>
       </c>
       <c r="D17" t="n">
-        <v>116.7505995423692</v>
+        <v>116.750599542369</v>
       </c>
       <c r="E17" t="n">
-        <v>143.997927993948</v>
+        <v>143.9979279939479</v>
       </c>
       <c r="F17" t="n">
-        <v>168.9436036633977</v>
+        <v>168.9436036633975</v>
       </c>
       <c r="G17" t="n">
-        <v>174.5743134769667</v>
+        <v>174.5743134769665</v>
       </c>
       <c r="H17" t="n">
-        <v>72.90800979109235</v>
+        <v>72.90800979109221</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.18953227273434</v>
+        <v>13.1895322727342</v>
       </c>
       <c r="V17" t="n">
-        <v>36.67602447780368</v>
+        <v>89.81981639182098</v>
       </c>
       <c r="W17" t="n">
-        <v>111.3085266390992</v>
+        <v>111.3085266390991</v>
       </c>
       <c r="X17" t="n">
-        <v>131.7986586001552</v>
+        <v>131.7986586001551</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.3054965777398</v>
+        <v>148.3054965777397</v>
       </c>
     </row>
     <row r="18">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.7348323378341</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8429621971285</v>
+        <v>7.956542819216742</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>13.76254108260582</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.66856338691258</v>
+        <v>135.7631702287093</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.7367981063846</v>
       </c>
       <c r="H19" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>222.5868149876011</v>
       </c>
       <c r="U19" t="n">
-        <v>48.31817739170033</v>
+        <v>48.31817739170019</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>14.20520124551408</v>
       </c>
       <c r="W19" t="n">
-        <v>48.59055625827722</v>
+        <v>48.59055625827708</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.8013995851668</v>
+        <v>144.8013995851666</v>
       </c>
       <c r="C20" t="n">
-        <v>127.3404496926938</v>
+        <v>127.3404496926936</v>
       </c>
       <c r="D20" t="n">
-        <v>116.7505995423692</v>
+        <v>116.750599542369</v>
       </c>
       <c r="E20" t="n">
-        <v>143.997927993948</v>
+        <v>143.9979279939479</v>
       </c>
       <c r="F20" t="n">
-        <v>168.9436036633977</v>
+        <v>168.9436036633975</v>
       </c>
       <c r="G20" t="n">
-        <v>174.5743134769667</v>
+        <v>174.5743134769665</v>
       </c>
       <c r="H20" t="n">
-        <v>72.90800979109235</v>
+        <v>19.76421787707498</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.18953227273434</v>
+        <v>13.1895322727342</v>
       </c>
       <c r="V20" t="n">
-        <v>36.67602447780208</v>
+        <v>89.81981639182098</v>
       </c>
       <c r="W20" t="n">
-        <v>111.3085266390992</v>
+        <v>111.3085266390991</v>
       </c>
       <c r="X20" t="n">
-        <v>131.7986586001552</v>
+        <v>131.7986586001551</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.3054965777398</v>
+        <v>148.3054965777397</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,10 +2169,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>7.275709104097473</v>
       </c>
       <c r="S21" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8429621971285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>145.7067752046559</v>
+        <v>182.4621111766792</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2242,25 +2242,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I22" t="n">
         <v>117.7338241830654</v>
       </c>
       <c r="J22" t="n">
-        <v>4.688565595032003</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U22" t="n">
-        <v>48.31817739170033</v>
+        <v>161.6620555762254</v>
       </c>
       <c r="V22" t="n">
-        <v>127.2488501185506</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>48.59055625827722</v>
+        <v>48.59055625827708</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.8013995851668</v>
+        <v>144.8013995851666</v>
       </c>
       <c r="C23" t="n">
-        <v>127.3404496926938</v>
+        <v>127.3404496926936</v>
       </c>
       <c r="D23" t="n">
-        <v>116.7505995423692</v>
+        <v>116.750599542369</v>
       </c>
       <c r="E23" t="n">
-        <v>143.997927993948</v>
+        <v>143.9979279939479</v>
       </c>
       <c r="F23" t="n">
-        <v>168.9436036633977</v>
+        <v>168.9436036633975</v>
       </c>
       <c r="G23" t="n">
-        <v>174.5743134769667</v>
+        <v>174.5743134769665</v>
       </c>
       <c r="H23" t="n">
-        <v>72.90800979109235</v>
+        <v>72.90800979109221</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.18953227273434</v>
+        <v>13.1895322727342</v>
       </c>
       <c r="V23" t="n">
-        <v>89.81981639182112</v>
+        <v>89.81981639182098</v>
       </c>
       <c r="W23" t="n">
-        <v>111.3085266390992</v>
+        <v>111.3085266390991</v>
       </c>
       <c r="X23" t="n">
-        <v>131.7986586001552</v>
+        <v>131.7986586001551</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.3054965777398</v>
+        <v>148.3054965777397</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>162.1238905101301</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>242.881612194794</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>63.27609799992526</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>143.5352173414772</v>
       </c>
       <c r="U25" t="n">
-        <v>48.31817739170033</v>
+        <v>48.31817739170019</v>
       </c>
       <c r="V25" t="n">
-        <v>14.20520124551422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>48.59055625827722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>275.8877138551825</v>
+        <v>275.8877138551824</v>
       </c>
       <c r="C26" t="n">
-        <v>258.4267639627095</v>
+        <v>258.4267639627093</v>
       </c>
       <c r="D26" t="n">
-        <v>247.8369138123849</v>
+        <v>247.8369138123848</v>
       </c>
       <c r="E26" t="n">
-        <v>275.0842422639637</v>
+        <v>275.0842422639636</v>
       </c>
       <c r="F26" t="n">
-        <v>300.0299179334134</v>
+        <v>300.0299179334132</v>
       </c>
       <c r="G26" t="n">
-        <v>305.6606277469824</v>
+        <v>305.6606277469822</v>
       </c>
       <c r="H26" t="n">
-        <v>203.9943240611081</v>
+        <v>203.9943240611079</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46050286776036</v>
+        <v>38.46050286776019</v>
       </c>
       <c r="T26" t="n">
-        <v>104.0103107265698</v>
+        <v>104.0103107265696</v>
       </c>
       <c r="U26" t="n">
-        <v>144.2758465427501</v>
+        <v>144.2758465427499</v>
       </c>
       <c r="V26" t="n">
-        <v>220.9061306618369</v>
+        <v>220.9061306618367</v>
       </c>
       <c r="W26" t="n">
-        <v>242.394840909115</v>
+        <v>242.3948409091148</v>
       </c>
       <c r="X26" t="n">
-        <v>262.884972870171</v>
+        <v>262.8849728701708</v>
       </c>
       <c r="Y26" t="n">
-        <v>279.3918108477556</v>
+        <v>279.3918108477554</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.98585237363925</v>
+        <v>72.98585237363908</v>
       </c>
       <c r="C28" t="n">
-        <v>60.40069329032978</v>
+        <v>60.40069329032961</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76934520991431</v>
+        <v>41.76934520991414</v>
       </c>
       <c r="E28" t="n">
-        <v>39.58783483827112</v>
+        <v>39.58783483827095</v>
       </c>
       <c r="F28" t="n">
-        <v>38.5749202146332</v>
+        <v>38.57492021463302</v>
       </c>
       <c r="G28" t="n">
-        <v>59.89067029808658</v>
+        <v>59.89067029808641</v>
       </c>
       <c r="H28" t="n">
-        <v>44.23023320342791</v>
+        <v>44.23023320342774</v>
       </c>
       <c r="I28" t="n">
-        <v>10.88769637476739</v>
+        <v>10.88769637476722</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.05471381652025</v>
+        <v>14.05471381652008</v>
       </c>
       <c r="S28" t="n">
-        <v>95.31351149934602</v>
+        <v>95.31351149934585</v>
       </c>
       <c r="T28" t="n">
-        <v>115.7406871793031</v>
+        <v>115.7406871793029</v>
       </c>
       <c r="U28" t="n">
-        <v>179.4044916617161</v>
+        <v>179.4044916617159</v>
       </c>
       <c r="V28" t="n">
-        <v>145.29151551553</v>
+        <v>145.2915155155298</v>
       </c>
       <c r="W28" t="n">
-        <v>179.676870528293</v>
+        <v>179.6768705282928</v>
       </c>
       <c r="X28" t="n">
-        <v>118.8635275807391</v>
+        <v>118.8635275807389</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.7385255437967</v>
+        <v>111.7385255437966</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>275.8877138551825</v>
+        <v>275.8877138551824</v>
       </c>
       <c r="C29" t="n">
-        <v>258.4267639627095</v>
+        <v>258.4267639627093</v>
       </c>
       <c r="D29" t="n">
-        <v>247.8369138123849</v>
+        <v>247.8369138123848</v>
       </c>
       <c r="E29" t="n">
-        <v>275.0842422639637</v>
+        <v>275.0842422639636</v>
       </c>
       <c r="F29" t="n">
-        <v>300.0299179334134</v>
+        <v>300.0299179334132</v>
       </c>
       <c r="G29" t="n">
-        <v>305.6606277469824</v>
+        <v>305.6606277469822</v>
       </c>
       <c r="H29" t="n">
-        <v>203.9943240611081</v>
+        <v>203.9943240611079</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46050286776036</v>
+        <v>38.46050286776019</v>
       </c>
       <c r="T29" t="n">
-        <v>104.0103107265698</v>
+        <v>104.0103107265696</v>
       </c>
       <c r="U29" t="n">
-        <v>144.2758465427501</v>
+        <v>144.2758465427499</v>
       </c>
       <c r="V29" t="n">
-        <v>220.9061306618369</v>
+        <v>220.9061306618367</v>
       </c>
       <c r="W29" t="n">
-        <v>242.394840909115</v>
+        <v>242.3948409091148</v>
       </c>
       <c r="X29" t="n">
-        <v>262.884972870171</v>
+        <v>262.8849728701708</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.3918108477556</v>
+        <v>279.3918108477554</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.98585237363925</v>
+        <v>72.98585237363908</v>
       </c>
       <c r="C31" t="n">
-        <v>60.40069329032978</v>
+        <v>60.40069329032961</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76934520991431</v>
+        <v>41.76934520991414</v>
       </c>
       <c r="E31" t="n">
-        <v>39.58783483827112</v>
+        <v>39.58783483827095</v>
       </c>
       <c r="F31" t="n">
-        <v>38.5749202146332</v>
+        <v>38.57492021463302</v>
       </c>
       <c r="G31" t="n">
-        <v>59.89067029808658</v>
+        <v>59.89067029808641</v>
       </c>
       <c r="H31" t="n">
-        <v>44.23023320342791</v>
+        <v>44.23023320342774</v>
       </c>
       <c r="I31" t="n">
-        <v>10.88769637476739</v>
+        <v>10.88769637476722</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>14.05471381652025</v>
+        <v>14.05471381652008</v>
       </c>
       <c r="S31" t="n">
-        <v>95.31351149934602</v>
+        <v>95.31351149934585</v>
       </c>
       <c r="T31" t="n">
-        <v>115.7406871793031</v>
+        <v>115.7406871793029</v>
       </c>
       <c r="U31" t="n">
-        <v>179.4044916617161</v>
+        <v>179.4044916617159</v>
       </c>
       <c r="V31" t="n">
-        <v>145.29151551553</v>
+        <v>145.2915155155298</v>
       </c>
       <c r="W31" t="n">
-        <v>179.676870528293</v>
+        <v>179.6768705282928</v>
       </c>
       <c r="X31" t="n">
-        <v>118.8635275807391</v>
+        <v>118.8635275807389</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.7385255437967</v>
+        <v>111.7385255437966</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.8877138551825</v>
+        <v>275.8877138551824</v>
       </c>
       <c r="C32" t="n">
-        <v>258.4267639627094</v>
+        <v>258.4267639627093</v>
       </c>
       <c r="D32" t="n">
-        <v>247.8369138123848</v>
+        <v>247.8369138123847</v>
       </c>
       <c r="E32" t="n">
-        <v>275.0842422639637</v>
+        <v>275.0842422639636</v>
       </c>
       <c r="F32" t="n">
-        <v>300.0299179334133</v>
+        <v>300.0299179334132</v>
       </c>
       <c r="G32" t="n">
-        <v>305.6606277469823</v>
+        <v>305.6606277469822</v>
       </c>
       <c r="H32" t="n">
-        <v>203.994324061108</v>
+        <v>203.9943240611079</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46050286776028</v>
+        <v>38.46050286776017</v>
       </c>
       <c r="T32" t="n">
-        <v>104.0103107265697</v>
+        <v>104.0103107265696</v>
       </c>
       <c r="U32" t="n">
-        <v>144.27584654275</v>
+        <v>144.2758465427499</v>
       </c>
       <c r="V32" t="n">
-        <v>220.9061306618368</v>
+        <v>220.9061306618367</v>
       </c>
       <c r="W32" t="n">
-        <v>242.3948409091149</v>
+        <v>242.3948409091148</v>
       </c>
       <c r="X32" t="n">
-        <v>262.8849728701709</v>
+        <v>262.8849728701708</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.3918108477554</v>
+        <v>279.3918108477553</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.98585237363918</v>
+        <v>72.98585237363906</v>
       </c>
       <c r="C34" t="n">
-        <v>60.40069329032971</v>
+        <v>60.4006932903296</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76934520991423</v>
+        <v>41.76934520991412</v>
       </c>
       <c r="E34" t="n">
-        <v>39.58783483827105</v>
+        <v>39.58783483827094</v>
       </c>
       <c r="F34" t="n">
-        <v>38.57492021463312</v>
+        <v>38.57492021463301</v>
       </c>
       <c r="G34" t="n">
-        <v>59.89067029808651</v>
+        <v>59.8906702980864</v>
       </c>
       <c r="H34" t="n">
-        <v>44.23023320342784</v>
+        <v>44.23023320342773</v>
       </c>
       <c r="I34" t="n">
-        <v>10.88769637476732</v>
+        <v>10.8876963747672</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.05471381652018</v>
+        <v>14.05471381652006</v>
       </c>
       <c r="S34" t="n">
-        <v>95.31351149934595</v>
+        <v>95.31351149934584</v>
       </c>
       <c r="T34" t="n">
-        <v>115.740687179303</v>
+        <v>115.7406871793029</v>
       </c>
       <c r="U34" t="n">
-        <v>179.404491661716</v>
+        <v>179.4044916617159</v>
       </c>
       <c r="V34" t="n">
-        <v>145.2915155155299</v>
+        <v>145.2915155155298</v>
       </c>
       <c r="W34" t="n">
-        <v>179.6768705282929</v>
+        <v>179.6768705282928</v>
       </c>
       <c r="X34" t="n">
-        <v>118.863527580739</v>
+        <v>118.8635275807389</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7385255437967</v>
+        <v>111.7385255437966</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.8774031286129</v>
+        <v>171.8774031286128</v>
       </c>
       <c r="C35" t="n">
-        <v>154.4164532361398</v>
+        <v>154.4164532361397</v>
       </c>
       <c r="D35" t="n">
         <v>143.8266030858152</v>
       </c>
       <c r="E35" t="n">
-        <v>171.0739315373941</v>
+        <v>171.073931537394</v>
       </c>
       <c r="F35" t="n">
-        <v>196.0196072068437</v>
+        <v>196.0196072068436</v>
       </c>
       <c r="G35" t="n">
-        <v>201.6503170204127</v>
+        <v>201.6503170204126</v>
       </c>
       <c r="H35" t="n">
-        <v>99.98401333453842</v>
+        <v>99.98401333453833</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>40.2655358161804</v>
+        <v>40.26553581618032</v>
       </c>
       <c r="V35" t="n">
-        <v>116.8958199352672</v>
+        <v>116.8958199352671</v>
       </c>
       <c r="W35" t="n">
-        <v>138.3845301825453</v>
+        <v>138.3845301825452</v>
       </c>
       <c r="X35" t="n">
-        <v>158.8746621436013</v>
+        <v>158.8746621436012</v>
       </c>
       <c r="Y35" t="n">
-        <v>175.3815001211859</v>
+        <v>175.3815001211858</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.78740528786003</v>
       </c>
       <c r="I36" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>115.0034789815092</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8429621971285</v>
+        <v>31.81750213044286</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>40.8385446260518</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.076361011726</v>
       </c>
       <c r="I37" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.688565595032003</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>177.7274876224701</v>
+        <v>219.6188063514669</v>
       </c>
       <c r="U37" t="n">
-        <v>75.39418093514639</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V37" t="n">
-        <v>41.28120478896028</v>
+        <v>41.2812047889602</v>
       </c>
       <c r="W37" t="n">
-        <v>75.66655980172328</v>
+        <v>75.6665598017232</v>
       </c>
       <c r="X37" t="n">
-        <v>14.85321685416943</v>
+        <v>14.85321685416935</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.728214817227069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3588,10 +3588,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>152.893705953362</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>63.98416929364393</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3712,7 +3712,7 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T40" t="n">
-        <v>106.2945625388934</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U40" t="n">
         <v>286.2506194700141</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>75.6665598017232</v>
+        <v>170.2307458878833</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>14.85321685416935</v>
       </c>
       <c r="Y40" t="n">
         <v>7.728214817226984</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H42" t="n">
-        <v>97.78740528786003</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>14.98652366226072</v>
       </c>
       <c r="V42" t="n">
-        <v>203.3247426051069</v>
+        <v>165.2646129642209</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.688565595032003</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T43" t="n">
-        <v>73.92575051494585</v>
+        <v>11.73037645273333</v>
       </c>
       <c r="U43" t="n">
-        <v>75.39418093514631</v>
+        <v>200.982825374237</v>
       </c>
       <c r="V43" t="n">
         <v>41.2812047889602</v>
       </c>
       <c r="W43" t="n">
-        <v>75.6665598017232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>14.85321685416935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>7.728214817226984</v>
@@ -3977,7 +3977,7 @@
         <v>171.8774031286128</v>
       </c>
       <c r="C44" t="n">
-        <v>154.4164532361397</v>
+        <v>154.4164532361402</v>
       </c>
       <c r="D44" t="n">
         <v>143.8266030858152</v>
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>61.03585163944501</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>7.275709104097473</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>83.29808440580267</v>
+        <v>14.98652366226072</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.688565595032003</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S46" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.77060144879087</v>
+        <v>11.73037645273333</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2506194700141</v>
+        <v>282.2416230570627</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>41.2812047889602</v>
       </c>
       <c r="W46" t="n">
-        <v>75.6665598017232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>14.85321685416935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>7.728214817226984</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>773.0745361734564</v>
+        <v>731.0511483242605</v>
       </c>
       <c r="C11" t="n">
-        <v>773.0745361734564</v>
+        <v>494.4990498384101</v>
       </c>
       <c r="D11" t="n">
-        <v>773.0745361734564</v>
+        <v>494.4990498384101</v>
       </c>
       <c r="E11" t="n">
-        <v>773.0745361734564</v>
+        <v>494.4990498384101</v>
       </c>
       <c r="F11" t="n">
         <v>494.4990498384101</v>
       </c>
       <c r="G11" t="n">
-        <v>210.2359778330922</v>
+        <v>210.2359778330921</v>
       </c>
       <c r="H11" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I11" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J11" t="n">
-        <v>84.36311551925041</v>
+        <v>84.36311551925044</v>
       </c>
       <c r="K11" t="n">
-        <v>218.5769593083171</v>
+        <v>218.576959308317</v>
       </c>
       <c r="L11" t="n">
-        <v>421.9828623864886</v>
+        <v>421.9828623864884</v>
       </c>
       <c r="M11" t="n">
-        <v>679.9805591267262</v>
+        <v>679.9805591267258</v>
       </c>
       <c r="N11" t="n">
-        <v>946.7667367073414</v>
+        <v>946.7667367073406</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.350097783941</v>
+        <v>1185.350097783939</v>
       </c>
       <c r="P11" t="n">
-        <v>1354.474475782721</v>
+        <v>1354.47447578272</v>
       </c>
       <c r="Q11" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R11" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S11" t="n">
-        <v>1418.943137739893</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T11" t="n">
-        <v>1338.367254644083</v>
+        <v>1352.731210609782</v>
       </c>
       <c r="U11" t="n">
-        <v>1338.367254644083</v>
+        <v>1231.48306911379</v>
       </c>
       <c r="V11" t="n">
-        <v>1139.714785755074</v>
+        <v>1231.48306911379</v>
       </c>
       <c r="W11" t="n">
-        <v>1139.714785755074</v>
+        <v>1231.48306911379</v>
       </c>
       <c r="X11" t="n">
-        <v>1030.803449694707</v>
+        <v>990.4277293072714</v>
       </c>
       <c r="Y11" t="n">
-        <v>773.0745361734564</v>
+        <v>732.698815786021</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>452.5731002741626</v>
+        <v>303.6766087653002</v>
       </c>
       <c r="C12" t="n">
-        <v>394.0444163932958</v>
+        <v>261.6339979387344</v>
       </c>
       <c r="D12" t="n">
-        <v>245.1100067320445</v>
+        <v>112.6995882774831</v>
       </c>
       <c r="E12" t="n">
-        <v>85.87255172658902</v>
+        <v>85.87255172658891</v>
       </c>
       <c r="F12" t="n">
-        <v>71.74841220803522</v>
+        <v>71.74841220803515</v>
       </c>
       <c r="G12" t="n">
-        <v>66.93909841133693</v>
+        <v>66.93909841133691</v>
       </c>
       <c r="H12" t="n">
-        <v>66.93909841133693</v>
+        <v>66.93909841133691</v>
       </c>
       <c r="I12" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8511558447006</v>
+        <v>167.8511558447005</v>
       </c>
       <c r="K12" t="n">
-        <v>270.5407722556477</v>
+        <v>270.5407722556475</v>
       </c>
       <c r="L12" t="n">
-        <v>454.9421753610949</v>
+        <v>454.9421753610947</v>
       </c>
       <c r="M12" t="n">
-        <v>689.486783305136</v>
+        <v>689.4867833051356</v>
       </c>
       <c r="N12" t="n">
-        <v>944.6477340279406</v>
+        <v>944.6477340279401</v>
       </c>
       <c r="O12" t="n">
-        <v>1155.850359002607</v>
+        <v>1155.850359002606</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.026019253826</v>
+        <v>1306.026019253825</v>
       </c>
       <c r="Q12" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R12" t="n">
-        <v>1433.307093705593</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="S12" t="n">
-        <v>1287.957641956873</v>
+        <v>1280.608440841621</v>
       </c>
       <c r="T12" t="n">
-        <v>1224.272231645941</v>
+        <v>1216.923030530689</v>
       </c>
       <c r="U12" t="n">
-        <v>996.1480274064168</v>
+        <v>1121.209244745727</v>
       </c>
       <c r="V12" t="n">
-        <v>893.4063376292353</v>
+        <v>1018.467554968545</v>
       </c>
       <c r="W12" t="n">
-        <v>771.5793993555949</v>
+        <v>764.2301982403437</v>
       </c>
       <c r="X12" t="n">
-        <v>696.1383176046234</v>
+        <v>556.3786980348109</v>
       </c>
       <c r="Y12" t="n">
-        <v>488.3780188396694</v>
+        <v>471.8919457853682</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.8188124593539</v>
+        <v>173.8188124593535</v>
       </c>
       <c r="C13" t="n">
-        <v>137.2930479860082</v>
+        <v>137.2930479860079</v>
       </c>
       <c r="D13" t="n">
-        <v>119.5868270282337</v>
+        <v>119.5868270282334</v>
       </c>
       <c r="E13" t="n">
-        <v>104.0841519004018</v>
+        <v>104.0841519004016</v>
       </c>
       <c r="F13" t="n">
-        <v>89.60462285705265</v>
+        <v>89.60462285705253</v>
       </c>
       <c r="G13" t="n">
-        <v>53.59403312334655</v>
+        <v>53.59403312334649</v>
       </c>
       <c r="H13" t="n">
         <v>33.40206671757851</v>
@@ -5197,19 +5197,19 @@
         <v>33.40206671757851</v>
       </c>
       <c r="J13" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="K13" t="n">
         <v>150.8752725800539</v>
       </c>
       <c r="L13" t="n">
-        <v>362.7873193555495</v>
+        <v>362.7873193555494</v>
       </c>
       <c r="M13" t="n">
-        <v>596.6079835133992</v>
+        <v>596.6079835133991</v>
       </c>
       <c r="N13" t="n">
-        <v>830.3035313143097</v>
+        <v>830.3035313143096</v>
       </c>
       <c r="O13" t="n">
         <v>1030.142898914446</v>
@@ -5218,31 +5218,31 @@
         <v>1177.619318985038</v>
       </c>
       <c r="Q13" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="R13" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="S13" t="n">
-        <v>992.0876119152465</v>
+        <v>1124.498030369808</v>
       </c>
       <c r="T13" t="n">
-        <v>899.6628637156651</v>
+        <v>1032.073282170226</v>
       </c>
       <c r="U13" t="n">
-        <v>686.2989733011824</v>
+        <v>818.709391755743</v>
       </c>
       <c r="V13" t="n">
-        <v>564.0249035498567</v>
+        <v>696.4353220044175</v>
       </c>
       <c r="W13" t="n">
-        <v>407.0181519674574</v>
+        <v>539.4285704220181</v>
       </c>
       <c r="X13" t="n">
-        <v>311.4390195240013</v>
+        <v>443.849437978562</v>
       </c>
       <c r="Y13" t="n">
-        <v>223.0568588350324</v>
+        <v>355.4672772895932</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.3887585747819</v>
+        <v>773.0745361734564</v>
       </c>
       <c r="C14" t="n">
-        <v>921.3887585747819</v>
+        <v>773.0745361734564</v>
       </c>
       <c r="D14" t="n">
-        <v>695.5334784225927</v>
+        <v>773.0745361734564</v>
       </c>
       <c r="E14" t="n">
-        <v>695.5334784225927</v>
+        <v>773.0745361734564</v>
       </c>
       <c r="F14" t="n">
-        <v>416.9579920875465</v>
+        <v>494.4990498384101</v>
       </c>
       <c r="G14" t="n">
-        <v>210.2359778330922</v>
+        <v>210.2359778330921</v>
       </c>
       <c r="H14" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I14" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J14" t="n">
-        <v>84.36311551925058</v>
+        <v>84.36311551925064</v>
       </c>
       <c r="K14" t="n">
-        <v>218.5769593083172</v>
+        <v>218.5769593083178</v>
       </c>
       <c r="L14" t="n">
-        <v>421.9828623864887</v>
+        <v>421.9828623864893</v>
       </c>
       <c r="M14" t="n">
-        <v>679.9805591267261</v>
+        <v>679.9805591267267</v>
       </c>
       <c r="N14" t="n">
-        <v>946.7667367073415</v>
+        <v>946.7667367073417</v>
       </c>
       <c r="O14" t="n">
-        <v>1185.350097783941</v>
+        <v>1185.35009778394</v>
       </c>
       <c r="P14" t="n">
-        <v>1354.474475782721</v>
+        <v>1354.47447578272</v>
       </c>
       <c r="Q14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="U14" t="n">
-        <v>1433.307093705593</v>
+        <v>1312.0589522096</v>
       </c>
       <c r="V14" t="n">
-        <v>1433.307093705593</v>
+        <v>1312.0589522096</v>
       </c>
       <c r="W14" t="n">
-        <v>1433.307093705593</v>
+        <v>1284.992871304267</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.307093705593</v>
+        <v>1284.992871304267</v>
       </c>
       <c r="Y14" t="n">
-        <v>1175.578180184343</v>
+        <v>1027.263957783017</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>717.3939371832849</v>
+        <v>530.2244891371976</v>
       </c>
       <c r="C15" t="n">
-        <v>542.940907902158</v>
+        <v>488.1818783106319</v>
       </c>
       <c r="D15" t="n">
-        <v>394.0064982409067</v>
+        <v>339.2474686493806</v>
       </c>
       <c r="E15" t="n">
-        <v>234.7690432354512</v>
+        <v>180.0100136439251</v>
       </c>
       <c r="F15" t="n">
-        <v>132.2506125272344</v>
+        <v>33.47545567081008</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412987305361</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="H15" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I15" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J15" t="n">
-        <v>43.02103085769583</v>
+        <v>167.8511558447005</v>
       </c>
       <c r="K15" t="n">
-        <v>145.7106472686429</v>
+        <v>270.5407722556474</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1120503740901</v>
+        <v>454.9421753610944</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7577216200622</v>
+        <v>689.4867833051353</v>
       </c>
       <c r="N15" t="n">
-        <v>877.9186723428668</v>
+        <v>944.6477340279398</v>
       </c>
       <c r="O15" t="n">
-        <v>1232.662178035001</v>
+        <v>1155.850359002606</v>
       </c>
       <c r="P15" t="n">
-        <v>1382.83783828622</v>
+        <v>1382.837838286219</v>
       </c>
       <c r="Q15" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R15" t="n">
-        <v>1433.307093705593</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="S15" t="n">
-        <v>1287.957641956873</v>
+        <v>1413.018859296183</v>
       </c>
       <c r="T15" t="n">
-        <v>1224.27223164594</v>
+        <v>1349.333448985251</v>
       </c>
       <c r="U15" t="n">
-        <v>1128.558445860978</v>
+        <v>1121.209244745727</v>
       </c>
       <c r="V15" t="n">
-        <v>1025.816756083796</v>
+        <v>1018.467554968546</v>
       </c>
       <c r="W15" t="n">
-        <v>903.9898178101561</v>
+        <v>849.2307882186299</v>
       </c>
       <c r="X15" t="n">
-        <v>828.5487360591844</v>
+        <v>641.379288013097</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.1988557487917</v>
+        <v>566.0294077027044</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8614999142581</v>
+        <v>169.0828876158868</v>
       </c>
       <c r="C16" t="n">
-        <v>326.3357354409124</v>
+        <v>132.5571231425412</v>
       </c>
       <c r="D16" t="n">
-        <v>308.6295144831379</v>
+        <v>114.8509021847668</v>
       </c>
       <c r="E16" t="n">
-        <v>293.126839355306</v>
+        <v>99.34822705693493</v>
       </c>
       <c r="F16" t="n">
-        <v>278.6473103119569</v>
+        <v>84.86869801358586</v>
       </c>
       <c r="G16" t="n">
-        <v>110.2263021236895</v>
+        <v>48.85810827987983</v>
       </c>
       <c r="H16" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I16" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J16" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="K16" t="n">
-        <v>150.8752725800539</v>
+        <v>150.8752725800538</v>
       </c>
       <c r="L16" t="n">
-        <v>362.7873193555495</v>
+        <v>362.7873193555492</v>
       </c>
       <c r="M16" t="n">
-        <v>596.6079835133992</v>
+        <v>596.6079835133989</v>
       </c>
       <c r="N16" t="n">
-        <v>830.3035313143097</v>
+        <v>830.3035313143093</v>
       </c>
       <c r="O16" t="n">
-        <v>1030.142898914446</v>
+        <v>1030.142898914445</v>
       </c>
       <c r="P16" t="n">
         <v>1177.619318985038</v>
       </c>
       <c r="Q16" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="R16" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="S16" t="n">
-        <v>1124.498030369808</v>
+        <v>1124.498030369807</v>
       </c>
       <c r="T16" t="n">
-        <v>1032.073282170227</v>
+        <v>899.6628637156648</v>
       </c>
       <c r="U16" t="n">
-        <v>875.3416607560866</v>
+        <v>742.9312423015249</v>
       </c>
       <c r="V16" t="n">
-        <v>753.067591004761</v>
+        <v>559.2889787063895</v>
       </c>
       <c r="W16" t="n">
-        <v>596.0608394223616</v>
+        <v>402.2822271239901</v>
       </c>
       <c r="X16" t="n">
-        <v>500.4817069789055</v>
+        <v>306.7030946805341</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.0995462899366</v>
+        <v>218.3209339915653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.3074592079174</v>
+        <v>841.3074592079167</v>
       </c>
       <c r="C17" t="n">
-        <v>712.6807423466105</v>
+        <v>712.68074234661</v>
       </c>
       <c r="D17" t="n">
-        <v>594.7508438189648</v>
+        <v>594.7508438189645</v>
       </c>
       <c r="E17" t="n">
-        <v>449.2983912998254</v>
+        <v>449.2983912998253</v>
       </c>
       <c r="F17" t="n">
         <v>278.6482865893227</v>
       </c>
       <c r="G17" t="n">
-        <v>102.3105962085486</v>
+        <v>102.3105962085484</v>
       </c>
       <c r="H17" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I17" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J17" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925019</v>
       </c>
       <c r="K17" t="n">
-        <v>218.5769593083178</v>
+        <v>218.5769593083166</v>
       </c>
       <c r="L17" t="n">
-        <v>421.9828623864893</v>
+        <v>421.982862386488</v>
       </c>
       <c r="M17" t="n">
-        <v>679.9805591267267</v>
+        <v>679.9805591267254</v>
       </c>
       <c r="N17" t="n">
-        <v>946.7667367073417</v>
+        <v>946.7667367073406</v>
       </c>
       <c r="O17" t="n">
-        <v>1185.350097783941</v>
+        <v>1185.35009778394</v>
       </c>
       <c r="P17" t="n">
-        <v>1354.474475782721</v>
+        <v>1354.47447578272</v>
       </c>
       <c r="Q17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="U17" t="n">
-        <v>1419.984333834144</v>
+        <v>1419.984333834143</v>
       </c>
       <c r="V17" t="n">
-        <v>1382.937844462625</v>
+        <v>1329.257246569678</v>
       </c>
       <c r="W17" t="n">
-        <v>1270.504989271616</v>
+        <v>1216.824391378668</v>
       </c>
       <c r="X17" t="n">
-        <v>1137.375031089641</v>
+        <v>1083.694433196694</v>
       </c>
       <c r="Y17" t="n">
-        <v>987.5714991929343</v>
+        <v>933.8909012999868</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>508.8911841338094</v>
+        <v>352.0535808164901</v>
       </c>
       <c r="C18" t="n">
-        <v>334.4381548526824</v>
+        <v>177.6005515353631</v>
       </c>
       <c r="D18" t="n">
-        <v>334.4381548526824</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="E18" t="n">
-        <v>175.2006998472269</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="F18" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="G18" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="H18" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I18" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J18" t="n">
         <v>167.8511558447005</v>
@@ -5613,31 +5613,31 @@
         <v>1306.026019253825</v>
       </c>
       <c r="Q18" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R18" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S18" t="n">
-        <v>1287.957641956872</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T18" t="n">
-        <v>1091.861813191379</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="U18" t="n">
-        <v>863.737608951855</v>
+        <v>1425.270181766989</v>
       </c>
       <c r="V18" t="n">
-        <v>628.5855007201123</v>
+        <v>1190.118073535246</v>
       </c>
       <c r="W18" t="n">
-        <v>614.6839440710155</v>
+        <v>935.8807168070448</v>
       </c>
       <c r="X18" t="n">
-        <v>614.6839440710155</v>
+        <v>728.029216601512</v>
       </c>
       <c r="Y18" t="n">
-        <v>614.6839440710155</v>
+        <v>520.2689178365581</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.2335383438323</v>
+        <v>631.22825235516</v>
       </c>
       <c r="C19" t="n">
-        <v>349.6895349227084</v>
+        <v>494.0937369726253</v>
       </c>
       <c r="D19" t="n">
-        <v>349.6895349227084</v>
+        <v>343.9770975602895</v>
       </c>
       <c r="E19" t="n">
-        <v>349.6895349227084</v>
+        <v>343.9770975602895</v>
       </c>
       <c r="F19" t="n">
-        <v>349.6895349227084</v>
+        <v>197.0871500623792</v>
       </c>
       <c r="G19" t="n">
-        <v>181.2685267344411</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="H19" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="I19" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J19" t="n">
-        <v>28.66614187411185</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="K19" t="n">
         <v>150.8752725800539</v>
@@ -5704,19 +5704,19 @@
         <v>971.4541011274109</v>
       </c>
       <c r="U19" t="n">
-        <v>922.6478613378147</v>
+        <v>922.6478613378148</v>
       </c>
       <c r="V19" t="n">
-        <v>667.9633731319278</v>
+        <v>908.2991732110329</v>
       </c>
       <c r="W19" t="n">
-        <v>618.882003174072</v>
+        <v>859.2178032531773</v>
       </c>
       <c r="X19" t="n">
-        <v>618.882003174072</v>
+        <v>631.22825235516</v>
       </c>
       <c r="Y19" t="n">
-        <v>618.882003174072</v>
+        <v>631.22825235516</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>841.3074592079179</v>
+        <v>787.62686131497</v>
       </c>
       <c r="C20" t="n">
-        <v>712.6807423466111</v>
+        <v>659.0001444536632</v>
       </c>
       <c r="D20" t="n">
-        <v>594.7508438189654</v>
+        <v>541.0702459260177</v>
       </c>
       <c r="E20" t="n">
-        <v>449.298391299826</v>
+        <v>395.6177934068785</v>
       </c>
       <c r="F20" t="n">
-        <v>278.6482865893233</v>
+        <v>224.9676886963759</v>
       </c>
       <c r="G20" t="n">
-        <v>102.3105962085486</v>
+        <v>48.62999831560172</v>
       </c>
       <c r="H20" t="n">
         <v>28.66614187411184</v>
@@ -5786,16 +5786,16 @@
         <v>1419.984333834143</v>
       </c>
       <c r="V20" t="n">
-        <v>1382.937844462626</v>
+        <v>1329.257246569678</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.504989271617</v>
+        <v>1216.824391378668</v>
       </c>
       <c r="X20" t="n">
-        <v>1137.375031089642</v>
+        <v>1083.694433196694</v>
       </c>
       <c r="Y20" t="n">
-        <v>987.5714991929349</v>
+        <v>933.8909012999868</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>474.0577387920781</v>
+        <v>657.8255937950606</v>
       </c>
       <c r="C21" t="n">
-        <v>474.0577387920781</v>
+        <v>483.3725645139336</v>
       </c>
       <c r="D21" t="n">
-        <v>325.1233291308268</v>
+        <v>334.4381548526824</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8858741253713</v>
+        <v>175.2006998472269</v>
       </c>
       <c r="F21" t="n">
-        <v>165.8858741253713</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="G21" t="n">
         <v>28.66614187411184</v>
@@ -5847,7 +5847,7 @@
         <v>1155.850359002606</v>
       </c>
       <c r="P21" t="n">
-        <v>1306.026019253825</v>
+        <v>1382.837838286219</v>
       </c>
       <c r="Q21" t="n">
         <v>1433.307093705592</v>
@@ -5856,25 +5856,25 @@
         <v>1425.957892590342</v>
       </c>
       <c r="S21" t="n">
-        <v>1280.608440841622</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="T21" t="n">
-        <v>1084.512612076128</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="U21" t="n">
-        <v>856.3884078366045</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="V21" t="n">
-        <v>621.2362996048619</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="W21" t="n">
-        <v>474.0577387920781</v>
+        <v>1241.652729785615</v>
       </c>
       <c r="X21" t="n">
-        <v>474.0577387920781</v>
+        <v>1033.801229580082</v>
       </c>
       <c r="Y21" t="n">
-        <v>474.0577387920781</v>
+        <v>826.0409308151286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>765.6658101288542</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="C22" t="n">
-        <v>765.6658101288542</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="D22" t="n">
-        <v>615.5491707165185</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="E22" t="n">
-        <v>467.6360771341253</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="F22" t="n">
-        <v>320.746129636215</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="G22" t="n">
-        <v>152.3251214479477</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="H22" t="n">
-        <v>152.3251214479477</v>
+        <v>147.589196604481</v>
       </c>
       <c r="I22" t="n">
-        <v>33.40206671757851</v>
+        <v>28.66614187411184</v>
       </c>
       <c r="J22" t="n">
         <v>28.66614187411184</v>
@@ -5938,22 +5938,22 @@
         <v>992.0876119152463</v>
       </c>
       <c r="T22" t="n">
-        <v>992.0876119152463</v>
+        <v>767.2524452611037</v>
       </c>
       <c r="U22" t="n">
-        <v>943.28137212565</v>
+        <v>603.9574396285528</v>
       </c>
       <c r="V22" t="n">
-        <v>814.74718008671</v>
+        <v>349.2729514226659</v>
       </c>
       <c r="W22" t="n">
-        <v>765.6658101288542</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="X22" t="n">
-        <v>765.6658101288542</v>
+        <v>300.1915814648103</v>
       </c>
       <c r="Y22" t="n">
-        <v>765.6658101288542</v>
+        <v>300.1915814648103</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>842.4029816138952</v>
       </c>
       <c r="C23" t="n">
-        <v>713.7762647525883</v>
+        <v>713.7762647525886</v>
       </c>
       <c r="D23" t="n">
-        <v>595.8463662249428</v>
+        <v>595.8463662249432</v>
       </c>
       <c r="E23" t="n">
-        <v>450.3939137058035</v>
+        <v>450.3939137058039</v>
       </c>
       <c r="F23" t="n">
-        <v>279.7438089953009</v>
+        <v>279.7438089953014</v>
       </c>
       <c r="G23" t="n">
-        <v>103.4061186145271</v>
+        <v>103.4061186145269</v>
       </c>
       <c r="H23" t="n">
-        <v>29.76166428009037</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="I23" t="n">
-        <v>29.76166428009037</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="J23" t="n">
-        <v>139.1392358181766</v>
+        <v>139.1392358181752</v>
       </c>
       <c r="K23" t="n">
-        <v>273.3530796072431</v>
+        <v>273.3530796072417</v>
       </c>
       <c r="L23" t="n">
-        <v>476.7589826854145</v>
+        <v>476.7589826854132</v>
       </c>
       <c r="M23" t="n">
-        <v>734.756679425652</v>
+        <v>734.7566794256506</v>
       </c>
       <c r="N23" t="n">
-        <v>1001.542857006267</v>
+        <v>1001.542857006266</v>
       </c>
       <c r="O23" t="n">
-        <v>1240.126218082866</v>
+        <v>1240.126218082865</v>
       </c>
       <c r="P23" t="n">
-        <v>1409.250596081646</v>
+        <v>1409.250596081645</v>
       </c>
       <c r="Q23" t="n">
-        <v>1488.083214004518</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="R23" t="n">
-        <v>1488.083214004518</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="S23" t="n">
-        <v>1488.083214004518</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="T23" t="n">
-        <v>1488.083214004518</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="U23" t="n">
-        <v>1474.76045413307</v>
+        <v>1474.760454133068</v>
       </c>
       <c r="V23" t="n">
         <v>1384.033366868603</v>
       </c>
       <c r="W23" t="n">
-        <v>1271.600511677594</v>
+        <v>1271.600511677593</v>
       </c>
       <c r="X23" t="n">
         <v>1138.470553495619</v>
       </c>
       <c r="Y23" t="n">
-        <v>988.6670215989121</v>
+        <v>988.6670215989118</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>313.5159545044649</v>
+        <v>658.9211162010391</v>
       </c>
       <c r="C24" t="n">
-        <v>313.5159545044649</v>
+        <v>484.4680869199121</v>
       </c>
       <c r="D24" t="n">
-        <v>313.5159545044649</v>
+        <v>335.5336772586609</v>
       </c>
       <c r="E24" t="n">
-        <v>313.5159545044649</v>
+        <v>176.2962222532054</v>
       </c>
       <c r="F24" t="n">
-        <v>166.9813965313499</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="G24" t="n">
-        <v>29.76166428009037</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="H24" t="n">
-        <v>29.76166428009037</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="I24" t="n">
-        <v>29.76166428009037</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="J24" t="n">
-        <v>44.11655326367429</v>
+        <v>91.46258031752907</v>
       </c>
       <c r="K24" t="n">
-        <v>402.1287115869679</v>
+        <v>194.1521967284761</v>
       </c>
       <c r="L24" t="n">
-        <v>586.5301146924151</v>
+        <v>378.5535998339232</v>
       </c>
       <c r="M24" t="n">
-        <v>821.074722636456</v>
+        <v>613.0982077779641</v>
       </c>
       <c r="N24" t="n">
-        <v>1076.235673359261</v>
+        <v>868.2591585007686</v>
       </c>
       <c r="O24" t="n">
-        <v>1287.438298333926</v>
+        <v>1079.461783475434</v>
       </c>
       <c r="P24" t="n">
-        <v>1437.613958585146</v>
+        <v>1229.637443726654</v>
       </c>
       <c r="Q24" t="n">
-        <v>1488.083214004518</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="R24" t="n">
-        <v>1488.083214004518</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="S24" t="n">
-        <v>1342.733762255798</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="T24" t="n">
-        <v>1342.733762255798</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="U24" t="n">
-        <v>1178.97225669001</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="V24" t="n">
-        <v>943.8201484582673</v>
+        <v>1488.083214004517</v>
       </c>
       <c r="W24" t="n">
-        <v>689.5827917300658</v>
+        <v>1242.748252191594</v>
       </c>
       <c r="X24" t="n">
-        <v>481.7312915245329</v>
+        <v>1034.896751986061</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.7312915245329</v>
+        <v>827.1364532211071</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.3559131697679</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="C25" t="n">
-        <v>800.4406626647929</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="D25" t="n">
-        <v>650.3240232524571</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="E25" t="n">
-        <v>502.410929670064</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="F25" t="n">
-        <v>355.5209821721536</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="G25" t="n">
-        <v>187.0999739838863</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="H25" t="n">
-        <v>34.49758912355703</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="I25" t="n">
-        <v>34.49758912355703</v>
+        <v>34.49758912355701</v>
       </c>
       <c r="J25" t="n">
-        <v>29.76166428009037</v>
+        <v>29.76166428009034</v>
       </c>
       <c r="K25" t="n">
         <v>151.9707949860324</v>
@@ -6172,25 +6172,25 @@
         <v>1197.384790187532</v>
       </c>
       <c r="S25" t="n">
-        <v>1197.384790187532</v>
+        <v>993.1831343212248</v>
       </c>
       <c r="T25" t="n">
-        <v>1197.384790187532</v>
+        <v>848.1980662995306</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.578550397936</v>
+        <v>799.3918265099345</v>
       </c>
       <c r="V25" t="n">
-        <v>1134.229862271154</v>
+        <v>544.7073383040477</v>
       </c>
       <c r="W25" t="n">
-        <v>1085.148492313298</v>
+        <v>255.2901682670871</v>
       </c>
       <c r="X25" t="n">
-        <v>1085.148492313298</v>
+        <v>255.2901682670871</v>
       </c>
       <c r="Y25" t="n">
-        <v>864.3559131697679</v>
+        <v>34.49758912355701</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1672.22947058976</v>
+        <v>1672.229470589759</v>
       </c>
       <c r="C26" t="n">
-        <v>1411.192335273892</v>
+        <v>1411.192335273891</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291684</v>
       </c>
       <c r="E26" t="n">
-        <v>882.9891473179839</v>
+        <v>882.9891473179832</v>
       </c>
       <c r="F26" t="n">
-        <v>579.9286241529198</v>
+        <v>579.9286241529194</v>
       </c>
       <c r="G26" t="n">
-        <v>271.180515317584</v>
+        <v>271.1805153175838</v>
       </c>
       <c r="H26" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="I26" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J26" t="n">
         <v>288.2282651940776</v>
       </c>
       <c r="K26" t="n">
-        <v>743.3460674285973</v>
+        <v>743.3460674285972</v>
       </c>
       <c r="L26" t="n">
-        <v>946.7519705067687</v>
+        <v>1360.236572911715</v>
       </c>
       <c r="M26" t="n">
-        <v>1204.749667247006</v>
+        <v>2063.252667809856</v>
       </c>
       <c r="N26" t="n">
-        <v>1863.977028137853</v>
+        <v>2763.012300558335</v>
       </c>
       <c r="O26" t="n">
-        <v>2479.55256866457</v>
+        <v>3008.325130507641</v>
       </c>
       <c r="P26" t="n">
-        <v>2967.257667753118</v>
+        <v>3177.449508506422</v>
       </c>
       <c r="Q26" t="n">
-        <v>3256.282126429296</v>
+        <v>3256.282126429294</v>
       </c>
       <c r="R26" t="n">
-        <v>3256.282126429296</v>
+        <v>3256.282126429294</v>
       </c>
       <c r="S26" t="n">
-        <v>3217.433133633579</v>
+        <v>3217.433133633576</v>
       </c>
       <c r="T26" t="n">
-        <v>3112.372213707751</v>
+        <v>3112.372213707748</v>
       </c>
       <c r="U26" t="n">
-        <v>2966.639035381741</v>
+        <v>2966.639035381739</v>
       </c>
       <c r="V26" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662712</v>
       </c>
       <c r="W26" t="n">
-        <v>2498.658256017143</v>
+        <v>2498.658256017141</v>
       </c>
       <c r="X26" t="n">
-        <v>2233.117879380607</v>
+        <v>2233.117879380605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029337</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>968.5529400944437</v>
+        <v>968.5529400944434</v>
       </c>
       <c r="C27" t="n">
-        <v>794.0999108133167</v>
+        <v>794.0999108133165</v>
       </c>
       <c r="D27" t="n">
-        <v>645.1655011520654</v>
+        <v>645.1655011520652</v>
       </c>
       <c r="E27" t="n">
-        <v>485.9280461466099</v>
+        <v>485.9280461466097</v>
       </c>
       <c r="F27" t="n">
-        <v>339.3934881734948</v>
+        <v>339.3934881734947</v>
       </c>
       <c r="G27" t="n">
-        <v>202.1737559222353</v>
+        <v>202.1737559222352</v>
       </c>
       <c r="H27" t="n">
-        <v>103.398599065811</v>
+        <v>103.3985990658109</v>
       </c>
       <c r="I27" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J27" t="n">
-        <v>204.3106564991746</v>
+        <v>204.3106564991745</v>
       </c>
       <c r="K27" t="n">
         <v>568.8208575525744</v>
       </c>
       <c r="L27" t="n">
-        <v>753.2222606580215</v>
+        <v>1120.354202508446</v>
       </c>
       <c r="M27" t="n">
-        <v>987.7668686020625</v>
+        <v>1354.898810452487</v>
       </c>
       <c r="N27" t="n">
-        <v>1293.662334372682</v>
+        <v>1610.059761175292</v>
       </c>
       <c r="O27" t="n">
         <v>1894.78865543131</v>
@@ -6336,7 +6336,7 @@
         <v>2269.893745284466</v>
       </c>
       <c r="U27" t="n">
-        <v>2041.769541044943</v>
+        <v>2041.769541044942</v>
       </c>
       <c r="V27" t="n">
         <v>1806.6174328132</v>
@@ -6345,10 +6345,10 @@
         <v>1552.380076084998</v>
       </c>
       <c r="X27" t="n">
-        <v>1344.528575879466</v>
+        <v>1344.528575879465</v>
       </c>
       <c r="Y27" t="n">
-        <v>1136.768277114512</v>
+        <v>1136.768277114511</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>363.4502823562933</v>
+        <v>363.4502823562921</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4394810529299</v>
+        <v>302.4394810529288</v>
       </c>
       <c r="D28" t="n">
-        <v>260.2482232651377</v>
+        <v>260.2482232651367</v>
       </c>
       <c r="E28" t="n">
-        <v>220.260511307288</v>
+        <v>220.2605113072873</v>
       </c>
       <c r="F28" t="n">
-        <v>181.2959454339212</v>
+        <v>181.2959454339206</v>
       </c>
       <c r="G28" t="n">
-        <v>120.8003188701973</v>
+        <v>120.8003188701969</v>
       </c>
       <c r="H28" t="n">
-        <v>76.12331563441157</v>
+        <v>76.12331563441134</v>
       </c>
       <c r="I28" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J28" t="n">
-        <v>166.2616291197193</v>
+        <v>133.5542330488195</v>
       </c>
       <c r="K28" t="n">
-        <v>288.4707598256613</v>
+        <v>255.7633637547615</v>
       </c>
       <c r="L28" t="n">
-        <v>500.3828066011568</v>
+        <v>573.4530770604722</v>
       </c>
       <c r="M28" t="n">
-        <v>734.2034707590064</v>
+        <v>807.2737412183219</v>
       </c>
       <c r="N28" t="n">
-        <v>1040.969289019235</v>
+        <v>1040.969289019232</v>
       </c>
       <c r="O28" t="n">
-        <v>1240.808656619371</v>
+        <v>1240.808656619368</v>
       </c>
       <c r="P28" t="n">
-        <v>1388.285076689963</v>
+        <v>1388.285076689961</v>
       </c>
       <c r="Q28" t="n">
-        <v>1406.955025486479</v>
+        <v>1406.955025486476</v>
       </c>
       <c r="R28" t="n">
-        <v>1392.758344863731</v>
+        <v>1392.758344863729</v>
       </c>
       <c r="S28" t="n">
-        <v>1296.482070621967</v>
+        <v>1296.482070621965</v>
       </c>
       <c r="T28" t="n">
-        <v>1179.572285592368</v>
+        <v>1179.572285592366</v>
       </c>
       <c r="U28" t="n">
-        <v>998.3556273482104</v>
+        <v>998.3556273482086</v>
       </c>
       <c r="V28" t="n">
-        <v>851.596520766867</v>
+        <v>851.5965207668653</v>
       </c>
       <c r="W28" t="n">
-        <v>670.1047323544499</v>
+        <v>670.1047323544483</v>
       </c>
       <c r="X28" t="n">
-        <v>550.0405630809761</v>
+        <v>550.0405630809746</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.1733655619895</v>
+        <v>437.1733655619881</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1672.22947058976</v>
+        <v>1672.229470589758</v>
       </c>
       <c r="C29" t="n">
-        <v>1411.192335273892</v>
+        <v>1411.19233527389</v>
       </c>
       <c r="D29" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291683</v>
       </c>
       <c r="E29" t="n">
-        <v>882.9891473179839</v>
+        <v>882.9891473179828</v>
       </c>
       <c r="F29" t="n">
-        <v>579.9286241529198</v>
+        <v>579.9286241529189</v>
       </c>
       <c r="G29" t="n">
-        <v>271.180515317584</v>
+        <v>271.1805153175838</v>
       </c>
       <c r="H29" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="I29" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J29" t="n">
-        <v>288.2282651940776</v>
+        <v>238.8695130621193</v>
       </c>
       <c r="K29" t="n">
-        <v>743.3460674285973</v>
+        <v>373.0833568511858</v>
       </c>
       <c r="L29" t="n">
-        <v>1360.236572911715</v>
+        <v>989.9738623343031</v>
       </c>
       <c r="M29" t="n">
-        <v>1618.234269651952</v>
+        <v>1692.989957232445</v>
       </c>
       <c r="N29" t="n">
-        <v>1885.020447232567</v>
+        <v>2392.749589980924</v>
       </c>
       <c r="O29" t="n">
-        <v>2500.595987759284</v>
+        <v>3008.325130507641</v>
       </c>
       <c r="P29" t="n">
-        <v>2988.301086847832</v>
+        <v>3177.449508506421</v>
       </c>
       <c r="Q29" t="n">
-        <v>3256.282126429296</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="R29" t="n">
-        <v>3256.282126429296</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="S29" t="n">
-        <v>3217.433133633579</v>
+        <v>3217.433133633576</v>
       </c>
       <c r="T29" t="n">
-        <v>3112.372213707751</v>
+        <v>3112.372213707748</v>
       </c>
       <c r="U29" t="n">
-        <v>2966.639035381741</v>
+        <v>2966.639035381738</v>
       </c>
       <c r="V29" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662711</v>
       </c>
       <c r="W29" t="n">
-        <v>2498.658256017143</v>
+        <v>2498.658256017141</v>
       </c>
       <c r="X29" t="n">
-        <v>2233.117879380606</v>
+        <v>2233.117879380604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029336</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>968.5529400944437</v>
+        <v>968.5529400944434</v>
       </c>
       <c r="C30" t="n">
-        <v>794.0999108133167</v>
+        <v>794.0999108133165</v>
       </c>
       <c r="D30" t="n">
-        <v>645.1655011520654</v>
+        <v>645.1655011520652</v>
       </c>
       <c r="E30" t="n">
-        <v>485.9280461466099</v>
+        <v>485.9280461466097</v>
       </c>
       <c r="F30" t="n">
-        <v>339.3934881734948</v>
+        <v>339.3934881734947</v>
       </c>
       <c r="G30" t="n">
-        <v>202.1737559222353</v>
+        <v>202.1737559222352</v>
       </c>
       <c r="H30" t="n">
-        <v>103.398599065811</v>
+        <v>103.3985990658109</v>
       </c>
       <c r="I30" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3106564991746</v>
+        <v>95.88974455505559</v>
       </c>
       <c r="K30" t="n">
-        <v>568.8208575525744</v>
+        <v>460.3999456084554</v>
       </c>
       <c r="L30" t="n">
-        <v>1120.354202508446</v>
+        <v>1011.933290564327</v>
       </c>
       <c r="M30" t="n">
-        <v>1428.42507973384</v>
+        <v>1246.477898508368</v>
       </c>
       <c r="N30" t="n">
-        <v>1683.586030456644</v>
+        <v>1501.638849231173</v>
       </c>
       <c r="O30" t="n">
-        <v>1894.78865543131</v>
+        <v>2102.765170289801</v>
       </c>
       <c r="P30" t="n">
-        <v>2360.242456636067</v>
+        <v>2568.218971494558</v>
       </c>
       <c r="Q30" t="n">
         <v>2618.68822691393</v>
@@ -6573,7 +6573,7 @@
         <v>2269.893745284466</v>
       </c>
       <c r="U30" t="n">
-        <v>2041.769541044943</v>
+        <v>2041.769541044942</v>
       </c>
       <c r="V30" t="n">
         <v>1806.6174328132</v>
@@ -6582,10 +6582,10 @@
         <v>1552.380076084998</v>
       </c>
       <c r="X30" t="n">
-        <v>1344.528575879466</v>
+        <v>1344.528575879465</v>
       </c>
       <c r="Y30" t="n">
-        <v>1136.768277114512</v>
+        <v>1136.768277114511</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>363.4502823562933</v>
+        <v>363.4502823562921</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4394810529299</v>
+        <v>302.4394810529288</v>
       </c>
       <c r="D31" t="n">
-        <v>260.2482232651377</v>
+        <v>260.2482232651367</v>
       </c>
       <c r="E31" t="n">
-        <v>220.260511307288</v>
+        <v>220.2605113072873</v>
       </c>
       <c r="F31" t="n">
-        <v>181.2959454339212</v>
+        <v>181.2959454339206</v>
       </c>
       <c r="G31" t="n">
-        <v>120.8003188701973</v>
+        <v>120.8003188701969</v>
       </c>
       <c r="H31" t="n">
-        <v>76.12331563441157</v>
+        <v>76.12331563441134</v>
       </c>
       <c r="I31" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J31" t="n">
-        <v>133.5542330488221</v>
+        <v>133.5542330488196</v>
       </c>
       <c r="K31" t="n">
-        <v>255.7633637547642</v>
+        <v>255.7633637547616</v>
       </c>
       <c r="L31" t="n">
-        <v>573.4530770604747</v>
+        <v>467.6754105302571</v>
       </c>
       <c r="M31" t="n">
-        <v>807.2737412183244</v>
+        <v>701.4960746881068</v>
       </c>
       <c r="N31" t="n">
-        <v>1040.969289019235</v>
+        <v>935.1916224890172</v>
       </c>
       <c r="O31" t="n">
-        <v>1240.808656619371</v>
+        <v>1135.030990089153</v>
       </c>
       <c r="P31" t="n">
-        <v>1388.285076689963</v>
+        <v>1282.507410159745</v>
       </c>
       <c r="Q31" t="n">
-        <v>1406.955025486479</v>
+        <v>1406.955025486476</v>
       </c>
       <c r="R31" t="n">
-        <v>1392.758344863731</v>
+        <v>1392.758344863729</v>
       </c>
       <c r="S31" t="n">
-        <v>1296.482070621967</v>
+        <v>1296.482070621965</v>
       </c>
       <c r="T31" t="n">
-        <v>1179.572285592368</v>
+        <v>1179.572285592366</v>
       </c>
       <c r="U31" t="n">
-        <v>998.3556273482104</v>
+        <v>998.3556273482086</v>
       </c>
       <c r="V31" t="n">
-        <v>851.596520766867</v>
+        <v>851.5965207668653</v>
       </c>
       <c r="W31" t="n">
-        <v>670.1047323544499</v>
+        <v>670.1047323544483</v>
       </c>
       <c r="X31" t="n">
-        <v>550.0405630809761</v>
+        <v>550.0405630809746</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.1733655619895</v>
+        <v>437.1733655619881</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1672.22947058976</v>
+        <v>1672.229470589759</v>
       </c>
       <c r="C32" t="n">
-        <v>1411.192335273892</v>
+        <v>1411.192335273891</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291684</v>
       </c>
       <c r="E32" t="n">
-        <v>882.9891473179841</v>
+        <v>882.9891473179837</v>
       </c>
       <c r="F32" t="n">
-        <v>579.9286241529201</v>
+        <v>579.9286241529198</v>
       </c>
       <c r="G32" t="n">
-        <v>271.180515317584</v>
+        <v>271.1805153175837</v>
       </c>
       <c r="H32" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="I32" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J32" t="n">
-        <v>120.8226161737246</v>
+        <v>288.2282651940776</v>
       </c>
       <c r="K32" t="n">
-        <v>575.9404184082442</v>
+        <v>743.3460674285972</v>
       </c>
       <c r="L32" t="n">
-        <v>1192.830923891362</v>
+        <v>1360.236572911715</v>
       </c>
       <c r="M32" t="n">
-        <v>1692.989957232448</v>
+        <v>2063.252667809856</v>
       </c>
       <c r="N32" t="n">
-        <v>2392.749589980927</v>
+        <v>2763.012300558335</v>
       </c>
       <c r="O32" t="n">
-        <v>3008.325130507644</v>
+        <v>3001.595661634934</v>
       </c>
       <c r="P32" t="n">
-        <v>3177.449508506424</v>
+        <v>3170.720039633715</v>
       </c>
       <c r="Q32" t="n">
-        <v>3256.282126429296</v>
+        <v>3249.552657556587</v>
       </c>
       <c r="R32" t="n">
-        <v>3256.282126429296</v>
+        <v>3256.282126429293</v>
       </c>
       <c r="S32" t="n">
-        <v>3217.433133633579</v>
+        <v>3217.433133633576</v>
       </c>
       <c r="T32" t="n">
-        <v>3112.372213707751</v>
+        <v>3112.372213707748</v>
       </c>
       <c r="U32" t="n">
-        <v>2966.639035381741</v>
+        <v>2966.639035381739</v>
       </c>
       <c r="V32" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662712</v>
       </c>
       <c r="W32" t="n">
-        <v>2498.658256017143</v>
+        <v>2498.658256017141</v>
       </c>
       <c r="X32" t="n">
-        <v>2233.117879380607</v>
+        <v>2233.117879380605</v>
       </c>
       <c r="Y32" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029337</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>968.5529400944437</v>
+        <v>968.5529400944434</v>
       </c>
       <c r="C33" t="n">
-        <v>794.0999108133167</v>
+        <v>794.0999108133165</v>
       </c>
       <c r="D33" t="n">
-        <v>645.1655011520654</v>
+        <v>645.1655011520652</v>
       </c>
       <c r="E33" t="n">
-        <v>485.9280461466099</v>
+        <v>485.9280461466097</v>
       </c>
       <c r="F33" t="n">
-        <v>339.3934881734948</v>
+        <v>339.3934881734947</v>
       </c>
       <c r="G33" t="n">
-        <v>202.1737559222353</v>
+        <v>202.1737559222352</v>
       </c>
       <c r="H33" t="n">
-        <v>103.398599065811</v>
+        <v>103.3985990658109</v>
       </c>
       <c r="I33" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J33" t="n">
-        <v>204.3106564991746</v>
+        <v>204.3106564991745</v>
       </c>
       <c r="K33" t="n">
         <v>568.8208575525744</v>
       </c>
       <c r="L33" t="n">
-        <v>753.2222606580215</v>
+        <v>1120.354202508446</v>
       </c>
       <c r="M33" t="n">
-        <v>987.7668686020625</v>
+        <v>1354.898810452487</v>
       </c>
       <c r="N33" t="n">
-        <v>1293.662334372682</v>
+        <v>1610.059761175292</v>
       </c>
       <c r="O33" t="n">
         <v>1894.78865543131</v>
@@ -6810,7 +6810,7 @@
         <v>2269.893745284466</v>
       </c>
       <c r="U33" t="n">
-        <v>2041.769541044943</v>
+        <v>2041.769541044942</v>
       </c>
       <c r="V33" t="n">
         <v>1806.6174328132</v>
@@ -6819,10 +6819,10 @@
         <v>1552.380076084998</v>
       </c>
       <c r="X33" t="n">
-        <v>1344.528575879466</v>
+        <v>1344.528575879465</v>
       </c>
       <c r="Y33" t="n">
-        <v>1136.768277114512</v>
+        <v>1136.768277114511</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>363.4502823562928</v>
+        <v>363.450282356292</v>
       </c>
       <c r="C34" t="n">
-        <v>302.4394810529295</v>
+        <v>302.4394810529287</v>
       </c>
       <c r="D34" t="n">
-        <v>260.2482232651373</v>
+        <v>260.2482232651367</v>
       </c>
       <c r="E34" t="n">
-        <v>220.2605113072877</v>
+        <v>220.2605113072872</v>
       </c>
       <c r="F34" t="n">
-        <v>181.295945433921</v>
+        <v>181.2959454339206</v>
       </c>
       <c r="G34" t="n">
-        <v>120.8003188701972</v>
+        <v>120.8003188701969</v>
       </c>
       <c r="H34" t="n">
-        <v>76.1233156344115</v>
+        <v>76.12331563441133</v>
       </c>
       <c r="I34" t="n">
-        <v>65.12564252858593</v>
+        <v>65.12564252858587</v>
       </c>
       <c r="J34" t="n">
-        <v>166.2616291197194</v>
+        <v>133.554233048819</v>
       </c>
       <c r="K34" t="n">
-        <v>361.5410302849781</v>
+        <v>255.763363754761</v>
       </c>
       <c r="L34" t="n">
-        <v>573.4530770604736</v>
+        <v>467.6754105302565</v>
       </c>
       <c r="M34" t="n">
-        <v>807.2737412183233</v>
+        <v>807.2737412183214</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.969289019234</v>
+        <v>1040.969289019232</v>
       </c>
       <c r="O34" t="n">
-        <v>1240.80865661937</v>
+        <v>1240.808656619368</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.285076689962</v>
+        <v>1388.28507668996</v>
       </c>
       <c r="Q34" t="n">
-        <v>1406.955025486478</v>
+        <v>1406.955025486476</v>
       </c>
       <c r="R34" t="n">
-        <v>1392.75834486373</v>
+        <v>1392.758344863728</v>
       </c>
       <c r="S34" t="n">
-        <v>1296.482070621966</v>
+        <v>1296.482070621965</v>
       </c>
       <c r="T34" t="n">
-        <v>1179.572285592367</v>
+        <v>1179.572285592366</v>
       </c>
       <c r="U34" t="n">
-        <v>998.3556273482097</v>
+        <v>998.3556273482083</v>
       </c>
       <c r="V34" t="n">
-        <v>851.5965207668664</v>
+        <v>851.5965207668651</v>
       </c>
       <c r="W34" t="n">
-        <v>670.1047323544493</v>
+        <v>670.1047323544481</v>
       </c>
       <c r="X34" t="n">
-        <v>550.0405630809755</v>
+        <v>550.0405630809744</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.1733655619889</v>
+        <v>437.173365561988</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1013.19780916068</v>
       </c>
       <c r="C35" t="n">
-        <v>857.2215937706394</v>
+        <v>857.2215937706396</v>
       </c>
       <c r="D35" t="n">
-        <v>711.9421967142604</v>
+        <v>711.9421967142607</v>
       </c>
       <c r="E35" t="n">
-        <v>539.1402456663876</v>
+        <v>539.140245666388</v>
       </c>
       <c r="F35" t="n">
-        <v>341.1406424271515</v>
+        <v>341.1406424271519</v>
       </c>
       <c r="G35" t="n">
-        <v>137.4534535176442</v>
+        <v>137.4534535176441</v>
       </c>
       <c r="H35" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I35" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J35" t="n">
-        <v>259.5621233199657</v>
+        <v>92.15647429961271</v>
       </c>
       <c r="K35" t="n">
-        <v>393.7759671090323</v>
+        <v>543.3427948987289</v>
       </c>
       <c r="L35" t="n">
-        <v>597.1818701872037</v>
+        <v>811.6508014045983</v>
       </c>
       <c r="M35" t="n">
-        <v>855.1795669274411</v>
+        <v>1069.648498144836</v>
       </c>
       <c r="N35" t="n">
-        <v>1121.965744508056</v>
+        <v>1336.434675725451</v>
       </c>
       <c r="O35" t="n">
-        <v>1360.549105584655</v>
+        <v>1575.01803680205</v>
       </c>
       <c r="P35" t="n">
-        <v>1533.950574047525</v>
+        <v>1744.14241480083</v>
       </c>
       <c r="Q35" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R35" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="S35" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="T35" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="U35" t="n">
         <v>1782.30277432352</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>398.1198961340774</v>
+        <v>727.1608124019797</v>
       </c>
       <c r="C36" t="n">
-        <v>223.6668668529504</v>
+        <v>727.1608124019797</v>
       </c>
       <c r="D36" t="n">
-        <v>74.73245719169914</v>
+        <v>578.2264027407284</v>
       </c>
       <c r="E36" t="n">
-        <v>74.73245719169914</v>
+        <v>418.9889477352729</v>
       </c>
       <c r="F36" t="n">
-        <v>74.73245719169914</v>
+        <v>272.4543897621578</v>
       </c>
       <c r="G36" t="n">
-        <v>74.73245719169914</v>
+        <v>135.2346575108983</v>
       </c>
       <c r="H36" t="n">
-        <v>74.73245719169914</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I36" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J36" t="n">
         <v>175.6445146250627</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3341310360097</v>
+        <v>540.1547156784625</v>
       </c>
       <c r="L36" t="n">
-        <v>462.7355341414568</v>
+        <v>724.5561187839096</v>
       </c>
       <c r="M36" t="n">
-        <v>697.2801420854978</v>
+        <v>959.1007267279506</v>
       </c>
       <c r="N36" t="n">
-        <v>1148.466462684614</v>
+        <v>1214.261677450755</v>
       </c>
       <c r="O36" t="n">
-        <v>1599.652783283731</v>
+        <v>1425.464302425421</v>
       </c>
       <c r="P36" t="n">
-        <v>1749.82844353495</v>
+        <v>1575.63996267664</v>
       </c>
       <c r="Q36" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R36" t="n">
-        <v>1815.625831608453</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="S36" t="n">
-        <v>1815.625831608453</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.4607013241</v>
+        <v>1619.530002842959</v>
       </c>
       <c r="U36" t="n">
-        <v>1471.336497084576</v>
+        <v>1587.391111802107</v>
       </c>
       <c r="V36" t="n">
-        <v>1236.184388852834</v>
+        <v>1352.239003570365</v>
       </c>
       <c r="W36" t="n">
-        <v>981.9470321246322</v>
+        <v>1310.987948392534</v>
       </c>
       <c r="X36" t="n">
-        <v>774.0955319190994</v>
+        <v>1103.136448187002</v>
       </c>
       <c r="Y36" t="n">
-        <v>566.3352331541455</v>
+        <v>895.3761494220478</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.1418732769065</v>
+        <v>339.1785249271391</v>
       </c>
       <c r="C37" t="n">
-        <v>481.1418732769065</v>
+        <v>339.1785249271391</v>
       </c>
       <c r="D37" t="n">
-        <v>481.1418732769065</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="E37" t="n">
-        <v>481.1418732769065</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="F37" t="n">
-        <v>481.1418732769065</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="G37" t="n">
-        <v>312.7208650886391</v>
+        <v>189.0618855148033</v>
       </c>
       <c r="H37" t="n">
-        <v>160.1184802283099</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I37" t="n">
-        <v>41.19542549794073</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J37" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="K37" t="n">
-        <v>158.6686313604161</v>
+        <v>158.668631360416</v>
       </c>
       <c r="L37" t="n">
         <v>370.5806781359115</v>
@@ -7117,28 +7117,28 @@
         <v>1204.082626561916</v>
       </c>
       <c r="R37" t="n">
-        <v>1081.960564314624</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="S37" t="n">
-        <v>877.758908448317</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="T37" t="n">
-        <v>698.2361936781452</v>
+        <v>982.2454484291206</v>
       </c>
       <c r="U37" t="n">
-        <v>622.0804553598156</v>
+        <v>693.1034085604194</v>
       </c>
       <c r="V37" t="n">
-        <v>580.3822687043001</v>
+        <v>651.4052219049041</v>
       </c>
       <c r="W37" t="n">
-        <v>503.951400217711</v>
+        <v>574.974353418315</v>
       </c>
       <c r="X37" t="n">
-        <v>488.9481508700651</v>
+        <v>559.9711040706692</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.1418732769065</v>
+        <v>339.1785249271391</v>
       </c>
     </row>
     <row r="38">
@@ -7175,19 +7175,19 @@
         <v>259.5621233199657</v>
       </c>
       <c r="K38" t="n">
-        <v>398.0530575731222</v>
+        <v>393.7759671090323</v>
       </c>
       <c r="L38" t="n">
-        <v>601.4589606512936</v>
+        <v>597.1818701872037</v>
       </c>
       <c r="M38" t="n">
-        <v>859.4566573915311</v>
+        <v>855.1795669274411</v>
       </c>
       <c r="N38" t="n">
-        <v>1126.242834972146</v>
+        <v>1121.965744508056</v>
       </c>
       <c r="O38" t="n">
-        <v>1364.826196048745</v>
+        <v>1360.549105584655</v>
       </c>
       <c r="P38" t="n">
         <v>1533.950574047525</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>514.2850264184301</v>
+        <v>703.8919091126479</v>
       </c>
       <c r="C39" t="n">
-        <v>339.8319971373031</v>
+        <v>529.4388798315209</v>
       </c>
       <c r="D39" t="n">
-        <v>190.8975874760519</v>
+        <v>380.5044701702697</v>
       </c>
       <c r="E39" t="n">
-        <v>36.45950065447406</v>
+        <v>221.2670151648142</v>
       </c>
       <c r="F39" t="n">
-        <v>36.45950065447406</v>
+        <v>74.73245719169914</v>
       </c>
       <c r="G39" t="n">
-        <v>36.45950065447406</v>
+        <v>74.73245719169914</v>
       </c>
       <c r="H39" t="n">
-        <v>36.45950065447406</v>
+        <v>74.73245719169914</v>
       </c>
       <c r="I39" t="n">
         <v>36.45950065447406</v>
@@ -7290,13 +7290,13 @@
         <v>1352.349519137186</v>
       </c>
       <c r="W39" t="n">
-        <v>1098.112162408985</v>
+        <v>1287.719045103203</v>
       </c>
       <c r="X39" t="n">
-        <v>890.2606622034521</v>
+        <v>1079.86754489767</v>
       </c>
       <c r="Y39" t="n">
-        <v>682.5003634384982</v>
+        <v>872.107246132716</v>
       </c>
     </row>
     <row r="40">
@@ -7360,16 +7360,16 @@
         <v>999.8809706956083</v>
       </c>
       <c r="T40" t="n">
-        <v>892.512725706827</v>
+        <v>775.0458040414658</v>
       </c>
       <c r="U40" t="n">
-        <v>603.370685838126</v>
+        <v>485.9037641727646</v>
       </c>
       <c r="V40" t="n">
-        <v>348.686197632239</v>
+        <v>231.2192759668777</v>
       </c>
       <c r="W40" t="n">
-        <v>272.25532914565</v>
+        <v>59.26902759527844</v>
       </c>
       <c r="X40" t="n">
         <v>44.26577824763263</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1013.197809160679</v>
+        <v>1013.19780916068</v>
       </c>
       <c r="C41" t="n">
-        <v>857.2215937706389</v>
+        <v>857.2215937706401</v>
       </c>
       <c r="D41" t="n">
-        <v>711.94219671426</v>
+        <v>711.9421967142612</v>
       </c>
       <c r="E41" t="n">
-        <v>539.1402456663877</v>
+        <v>539.1402456663886</v>
       </c>
       <c r="F41" t="n">
-        <v>341.1406424271518</v>
+        <v>341.1406424271524</v>
       </c>
       <c r="G41" t="n">
         <v>137.4534535176441</v>
       </c>
       <c r="H41" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="I41" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="J41" t="n">
         <v>259.5621233199657</v>
@@ -7427,34 +7427,34 @@
         <v>1360.549105584655</v>
       </c>
       <c r="P41" t="n">
-        <v>1533.950574047524</v>
+        <v>1529.673483583435</v>
       </c>
       <c r="Q41" t="n">
-        <v>1822.975032723702</v>
+        <v>1797.468688717581</v>
       </c>
       <c r="R41" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="S41" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="T41" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="U41" t="n">
-        <v>1782.30277432352</v>
+        <v>1782.302774323521</v>
       </c>
       <c r="V41" t="n">
-        <v>1664.22618853032</v>
+        <v>1664.226188530322</v>
       </c>
       <c r="W41" t="n">
-        <v>1524.443834810578</v>
+        <v>1524.443834810579</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.964378099869</v>
+        <v>1363.964378099871</v>
       </c>
       <c r="Y41" t="n">
-        <v>1186.811347674429</v>
+        <v>1186.811347674431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>764.3941094318471</v>
+        <v>802.8386848266824</v>
       </c>
       <c r="C42" t="n">
-        <v>589.9410801507202</v>
+        <v>628.3856555455554</v>
       </c>
       <c r="D42" t="n">
-        <v>441.0066704894688</v>
+        <v>479.4512458843041</v>
       </c>
       <c r="E42" t="n">
-        <v>281.7692154840133</v>
+        <v>320.2137908788486</v>
       </c>
       <c r="F42" t="n">
-        <v>135.2346575108983</v>
+        <v>173.6792329057336</v>
       </c>
       <c r="G42" t="n">
-        <v>135.2346575108983</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="H42" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="I42" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="J42" t="n">
-        <v>125.3437386888172</v>
+        <v>175.6445146250627</v>
       </c>
       <c r="K42" t="n">
-        <v>228.0333550997642</v>
+        <v>529.0440154476621</v>
       </c>
       <c r="L42" t="n">
-        <v>412.4347582052113</v>
+        <v>713.4454185531092</v>
       </c>
       <c r="M42" t="n">
-        <v>646.9793661492523</v>
+        <v>947.9900264971502</v>
       </c>
       <c r="N42" t="n">
-        <v>902.1403168720568</v>
+        <v>1203.150977219955</v>
       </c>
       <c r="O42" t="n">
-        <v>1113.342941846723</v>
+        <v>1414.353602194621</v>
       </c>
       <c r="P42" t="n">
-        <v>1564.529262445839</v>
+        <v>1564.52926244584</v>
       </c>
       <c r="Q42" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="R42" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="S42" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="T42" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="U42" t="n">
-        <v>1807.83713003455</v>
+        <v>1807.837130034551</v>
       </c>
       <c r="V42" t="n">
-        <v>1602.458602150603</v>
+        <v>1640.903177545439</v>
       </c>
       <c r="W42" t="n">
-        <v>1348.221245422402</v>
+        <v>1386.665820817237</v>
       </c>
       <c r="X42" t="n">
-        <v>1140.369745216869</v>
+        <v>1178.814320611704</v>
       </c>
       <c r="Y42" t="n">
-        <v>932.6094464519151</v>
+        <v>971.0540218467504</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>526.4657101965081</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="C43" t="n">
-        <v>357.5295272686012</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="D43" t="n">
-        <v>357.5295272686012</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="E43" t="n">
-        <v>209.616433686208</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="F43" t="n">
-        <v>209.616433686208</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="G43" t="n">
-        <v>41.19542549794071</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="H43" t="n">
-        <v>41.19542549794071</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="I43" t="n">
-        <v>41.19542549794071</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="J43" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="K43" t="n">
-        <v>158.668631360416</v>
+        <v>158.6686313604161</v>
       </c>
       <c r="L43" t="n">
         <v>370.5806781359115</v>
@@ -7597,22 +7597,22 @@
         <v>999.8809706956083</v>
       </c>
       <c r="T43" t="n">
-        <v>925.2084954279862</v>
+        <v>988.0321055918373</v>
       </c>
       <c r="U43" t="n">
-        <v>849.0527571096567</v>
+        <v>785.0191506683656</v>
       </c>
       <c r="V43" t="n">
-        <v>807.3545704541414</v>
+        <v>743.3209640128503</v>
       </c>
       <c r="W43" t="n">
-        <v>730.9237019675522</v>
+        <v>453.9037939758897</v>
       </c>
       <c r="X43" t="n">
-        <v>715.9204526199064</v>
+        <v>225.9142430778723</v>
       </c>
       <c r="Y43" t="n">
-        <v>708.1141750267478</v>
+        <v>218.1079654847138</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1013.19780916068</v>
+        <v>1013.197809160681</v>
       </c>
       <c r="C44" t="n">
-        <v>857.2215937706396</v>
+        <v>857.2215937706394</v>
       </c>
       <c r="D44" t="n">
-        <v>711.9421967142607</v>
+        <v>711.9421967142605</v>
       </c>
       <c r="E44" t="n">
-        <v>539.140245666388</v>
+        <v>539.1402456663877</v>
       </c>
       <c r="F44" t="n">
-        <v>341.140642427152</v>
+        <v>341.1406424271517</v>
       </c>
       <c r="G44" t="n">
         <v>137.4534535176441</v>
       </c>
       <c r="H44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="I44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="J44" t="n">
         <v>259.5621233199657</v>
       </c>
       <c r="K44" t="n">
-        <v>582.7385543203054</v>
+        <v>393.7759671090323</v>
       </c>
       <c r="L44" t="n">
-        <v>786.1444573984768</v>
+        <v>597.1818701872037</v>
       </c>
       <c r="M44" t="n">
-        <v>1044.142154138714</v>
+        <v>855.1795669274411</v>
       </c>
       <c r="N44" t="n">
-        <v>1310.928331719329</v>
+        <v>1121.965744508056</v>
       </c>
       <c r="O44" t="n">
-        <v>1549.511692795928</v>
+        <v>1360.549105584655</v>
       </c>
       <c r="P44" t="n">
-        <v>1718.636070794709</v>
+        <v>1529.673483583435</v>
       </c>
       <c r="Q44" t="n">
         <v>1797.468688717581</v>
       </c>
       <c r="R44" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="S44" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="T44" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="U44" t="n">
-        <v>1782.30277432352</v>
+        <v>1782.302774323521</v>
       </c>
       <c r="V44" t="n">
-        <v>1664.226188530321</v>
+        <v>1664.226188530322</v>
       </c>
       <c r="W44" t="n">
-        <v>1524.443834810578</v>
+        <v>1524.443834810579</v>
       </c>
       <c r="X44" t="n">
-        <v>1363.96437809987</v>
+        <v>1363.964378099871</v>
       </c>
       <c r="Y44" t="n">
-        <v>1186.81134767443</v>
+        <v>1186.811347674431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>665.6189525754229</v>
+        <v>727.2713279688016</v>
       </c>
       <c r="C45" t="n">
-        <v>491.1659232942959</v>
+        <v>552.8182986876747</v>
       </c>
       <c r="D45" t="n">
-        <v>342.2315136330446</v>
+        <v>403.8838890264234</v>
       </c>
       <c r="E45" t="n">
-        <v>182.9940586275891</v>
+        <v>244.6464340209679</v>
       </c>
       <c r="F45" t="n">
-        <v>36.45950065447405</v>
+        <v>98.11187604785286</v>
       </c>
       <c r="G45" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="H45" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="I45" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="J45" t="n">
-        <v>50.81438963805797</v>
+        <v>175.6445146250627</v>
       </c>
       <c r="K45" t="n">
-        <v>153.504006049005</v>
+        <v>278.3341310360097</v>
       </c>
       <c r="L45" t="n">
-        <v>496.803705898033</v>
+        <v>462.7355341414568</v>
       </c>
       <c r="M45" t="n">
-        <v>947.9900264971493</v>
+        <v>913.9218547405733</v>
       </c>
       <c r="N45" t="n">
-        <v>1203.150977219954</v>
+        <v>1365.10817533969</v>
       </c>
       <c r="O45" t="n">
-        <v>1414.35360219462</v>
+        <v>1622.330117053111</v>
       </c>
       <c r="P45" t="n">
-        <v>1564.529262445839</v>
+        <v>1772.50577730433</v>
       </c>
       <c r="Q45" t="n">
-        <v>1822.975032723702</v>
+        <v>1822.975032723703</v>
       </c>
       <c r="R45" t="n">
-        <v>1822.975032723702</v>
+        <v>1815.625831608453</v>
       </c>
       <c r="S45" t="n">
-        <v>1822.975032723702</v>
+        <v>1815.625831608453</v>
       </c>
       <c r="T45" t="n">
-        <v>1822.975032723702</v>
+        <v>1815.625831608453</v>
       </c>
       <c r="U45" t="n">
-        <v>1738.835553525922</v>
+        <v>1800.487928919301</v>
       </c>
       <c r="V45" t="n">
-        <v>1503.683445294179</v>
+        <v>1565.335820687558</v>
       </c>
       <c r="W45" t="n">
-        <v>1249.446088565978</v>
+        <v>1311.098463959356</v>
       </c>
       <c r="X45" t="n">
-        <v>1041.594588360445</v>
+        <v>1103.246963753824</v>
       </c>
       <c r="Y45" t="n">
-        <v>833.8342895954909</v>
+        <v>895.4866649888697</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.9144497706058</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="C46" t="n">
-        <v>343.9144497706058</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="D46" t="n">
-        <v>193.79781035827</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="E46" t="n">
-        <v>193.79781035827</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="F46" t="n">
-        <v>193.79781035827</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="G46" t="n">
-        <v>193.79781035827</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="H46" t="n">
-        <v>41.19542549794072</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="I46" t="n">
-        <v>41.19542549794072</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="J46" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447406</v>
       </c>
       <c r="K46" t="n">
         <v>158.6686313604161</v>
@@ -7828,28 +7828,28 @@
         <v>1204.082626561916</v>
       </c>
       <c r="R46" t="n">
-        <v>1204.082626561916</v>
+        <v>1081.960564314624</v>
       </c>
       <c r="S46" t="n">
-        <v>999.8809706956083</v>
+        <v>1081.960564314624</v>
       </c>
       <c r="T46" t="n">
-        <v>986.9813732725872</v>
+        <v>1070.111699210853</v>
       </c>
       <c r="U46" t="n">
-        <v>697.8393334038861</v>
+        <v>785.0191506683656</v>
       </c>
       <c r="V46" t="n">
-        <v>443.1548451979992</v>
+        <v>743.3209640128503</v>
       </c>
       <c r="W46" t="n">
-        <v>366.7239767114102</v>
+        <v>453.9037939758897</v>
       </c>
       <c r="X46" t="n">
-        <v>351.7207273637644</v>
+        <v>225.9142430778723</v>
       </c>
       <c r="Y46" t="n">
-        <v>343.9144497706058</v>
+        <v>218.1079654847138</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.95243602841492</v>
+        <v>39.95243602841498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.5876959923178</v>
+        <v>77.58769599231718</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.95243602841492</v>
+        <v>39.95243602841501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>58.68794272922315</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>144.9907886035033</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.58769599231812</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.58769599231809</v>
+        <v>77.58769599231718</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>77.58769599231718</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.58769599231763</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.22282615449248</v>
+        <v>54.22282615449113</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>47.8242697513685</v>
       </c>
       <c r="K24" t="n">
-        <v>257.9015574872188</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,22 +9878,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>396.4052356669012</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>6.797443305764688</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>39.95243602841498</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>51.24698489678281</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>74.26895887005298</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>119.2392897862574</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>191.0590117763554</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>39.95243602841498</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>16.57496266958161</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>74.26895887005287</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,13 +10355,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>244.6074107079277</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>39.95243602841498</v>
+        <v>46.74987933417917</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>51.24698489678281</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>74.26895887005298</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>320.1742190000502</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>65.55768022999791</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.320293398070646</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>39.95243602841498</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>198.0054241174869</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>242.407773358031</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.90639774684887</v>
+        <v>198.8543582097871</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>4.320293398070675</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.320293398070646</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.320293398069708</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>190.8713002134079</v>
       </c>
       <c r="R41" t="n">
-        <v>39.95243602841498</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>75.2821707583427</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>253.2423074865176</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>304.051172068583</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>190.8713002134072</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>190.8713002134079</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>160.5033300440211</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>218.8300127829044</v>
+        <v>218.8300127829045</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>198.0054241174869</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>46.48415832197526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.647527393465</v>
+        <v>250.016336606322</v>
       </c>
       <c r="C11" t="n">
-        <v>234.1865775009919</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>223.5967273506674</v>
+        <v>223.5967273506673</v>
       </c>
       <c r="E11" t="n">
-        <v>250.8440558022462</v>
+        <v>250.8440558022461</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7897314716957</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.22031640604274</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>120.0356600810325</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.6659442001192</v>
       </c>
       <c r="W11" t="n">
-        <v>218.1546544473974</v>
+        <v>218.1546544473973</v>
       </c>
       <c r="X11" t="n">
-        <v>130.8225637086903</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>234.1865775009919</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.5967273506673</v>
       </c>
       <c r="E14" t="n">
-        <v>250.8440558022462</v>
+        <v>250.8440558022461</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>76.76564717335509</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.22031640604278</v>
+        <v>14.22031640604276</v>
       </c>
       <c r="T14" t="n">
-        <v>79.7701242648522</v>
+        <v>79.77012426485214</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0356600810325</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.6659442001193</v>
+        <v>196.6659442001192</v>
       </c>
       <c r="W14" t="n">
-        <v>218.1546544473974</v>
+        <v>191.3592343511179</v>
       </c>
       <c r="X14" t="n">
         <v>238.6447864084534</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>53.14379191401729</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>53.14379191401744</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>53.14379191401724</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>53.14379191401904</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940128.3351891977</v>
+        <v>940128.3351891978</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>970769.9721934345</v>
+        <v>970769.9721934344</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>970769.9721934344</v>
+        <v>970769.9721934345</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>970769.9721934344</v>
+        <v>970769.9721934347</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
         <v>512047.711698149</v>
@@ -26320,40 +26320,40 @@
         <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
-        <v>442044.0397925238</v>
+        <v>442044.039792524</v>
       </c>
       <c r="F2" t="n">
-        <v>442044.0397925239</v>
+        <v>442044.039792524</v>
       </c>
       <c r="G2" t="n">
-        <v>510507.202517455</v>
+        <v>510507.2025174549</v>
       </c>
       <c r="H2" t="n">
-        <v>510507.2025174546</v>
+        <v>510507.2025174547</v>
       </c>
       <c r="I2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="J2" t="n">
+        <v>513151.1061651778</v>
+      </c>
+      <c r="K2" t="n">
+        <v>513151.1061651777</v>
+      </c>
+      <c r="L2" t="n">
+        <v>513151.1061651777</v>
+      </c>
+      <c r="M2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="J2" t="n">
-        <v>513151.1061651776</v>
-      </c>
-      <c r="K2" t="n">
-        <v>513151.1061651775</v>
-      </c>
-      <c r="L2" t="n">
-        <v>513151.1061651772</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>513151.1061651771</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.106165177</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>770624.7410272717</v>
+        <v>770624.7410272715</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85476.90224663836</v>
+        <v>85476.90224663861</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3641.530171502683</v>
+        <v>3641.530171502623</v>
       </c>
       <c r="J3" t="n">
         <v>115659.6590606171</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85476.90224663859</v>
+        <v>85476.90224663862</v>
       </c>
       <c r="M3" t="n">
-        <v>83208.24858125568</v>
+        <v>83208.24858125566</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>162932.9706038655</v>
       </c>
       <c r="F4" t="n">
-        <v>162932.9706038655</v>
+        <v>162932.9706038656</v>
       </c>
       <c r="G4" t="n">
-        <v>225455.4012801174</v>
+        <v>225455.4012801175</v>
       </c>
       <c r="H4" t="n">
-        <v>225455.4012801174</v>
+        <v>225455.4012801175</v>
       </c>
       <c r="I4" t="n">
-        <v>227817.5680803865</v>
+        <v>227817.5680803866</v>
       </c>
       <c r="J4" t="n">
         <v>226398.9796462776</v>
@@ -26445,7 +26445,7 @@
         <v>226398.9796462776</v>
       </c>
       <c r="L4" t="n">
-        <v>226398.9796462777</v>
+        <v>226398.9796462776</v>
       </c>
       <c r="M4" t="n">
         <v>227497.7032922599</v>
@@ -26454,7 +26454,7 @@
         <v>227497.70329226</v>
       </c>
       <c r="O4" t="n">
-        <v>227497.7032922599</v>
+        <v>227497.70329226</v>
       </c>
       <c r="P4" t="n">
         <v>227497.70329226</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47968.47435149255</v>
+        <v>47968.47435149252</v>
       </c>
       <c r="F5" t="n">
         <v>47968.47435149254</v>
@@ -26485,19 +26485,19 @@
         <v>56950.92147020836</v>
       </c>
       <c r="H5" t="n">
-        <v>56950.92147020834</v>
+        <v>56950.92147020836</v>
       </c>
       <c r="I5" t="n">
         <v>57783.51849875202</v>
       </c>
       <c r="J5" t="n">
-        <v>73639.8466132427</v>
+        <v>73639.84661324267</v>
       </c>
       <c r="K5" t="n">
-        <v>73639.8466132427</v>
+        <v>73639.84661324267</v>
       </c>
       <c r="L5" t="n">
-        <v>73639.8466132427</v>
+        <v>73639.84661324267</v>
       </c>
       <c r="M5" t="n">
         <v>60597.62160138966</v>
@@ -26506,10 +26506,10 @@
         <v>60597.62160138968</v>
       </c>
       <c r="O5" t="n">
-        <v>60597.62160138966</v>
+        <v>60597.62160138968</v>
       </c>
       <c r="P5" t="n">
-        <v>60597.62160138966</v>
+        <v>60597.62160138968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15269.38059603927</v>
+        <v>15264.96701817104</v>
       </c>
       <c r="C6" t="n">
-        <v>15269.38059603927</v>
+        <v>15264.9670181711</v>
       </c>
       <c r="D6" t="n">
-        <v>15269.38059603927</v>
+        <v>15264.9670181711</v>
       </c>
       <c r="E6" t="n">
-        <v>-539482.1461901059</v>
+        <v>-539766.5744555962</v>
       </c>
       <c r="F6" t="n">
-        <v>231142.5948371659</v>
+        <v>230858.1665716752</v>
       </c>
       <c r="G6" t="n">
-        <v>142623.9775204909</v>
+        <v>142613.4019058995</v>
       </c>
       <c r="H6" t="n">
-        <v>228100.8797671288</v>
+        <v>228090.304152538</v>
       </c>
       <c r="I6" t="n">
-        <v>223908.4894145358</v>
+        <v>223908.4894145359</v>
       </c>
       <c r="J6" t="n">
-        <v>97452.62084504013</v>
+        <v>97452.62084504036</v>
       </c>
       <c r="K6" t="n">
-        <v>213112.2799056571</v>
+        <v>213112.2799056574</v>
       </c>
       <c r="L6" t="n">
-        <v>127635.3776590182</v>
+        <v>127635.3776590188</v>
       </c>
       <c r="M6" t="n">
-        <v>141847.5326902719</v>
+        <v>141847.5326902717</v>
       </c>
       <c r="N6" t="n">
+        <v>225055.7812715275</v>
+      </c>
+      <c r="O6" t="n">
         <v>225055.7812715273</v>
       </c>
-      <c r="O6" t="n">
-        <v>225055.7812715275</v>
-      </c>
       <c r="P6" t="n">
-        <v>225055.7812715273</v>
+        <v>225055.7812715274</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G2" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I2" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="J2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="K2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="M2" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="N2" t="n">
         <v>210.8564385348678</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>695.5005125138343</v>
+        <v>695.5005125138341</v>
       </c>
       <c r="F3" t="n">
-        <v>695.5005125138343</v>
+        <v>695.500512513834</v>
       </c>
       <c r="G3" t="n">
         <v>695.5005125138341</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263979</v>
       </c>
       <c r="F4" t="n">
-        <v>358.3267734263982</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="G4" t="n">
-        <v>358.3267734263982</v>
+        <v>358.3267734263979</v>
       </c>
       <c r="H4" t="n">
-        <v>358.3267734263981</v>
+        <v>358.3267734263979</v>
       </c>
       <c r="I4" t="n">
-        <v>372.0208035011296</v>
+        <v>372.0208035011293</v>
       </c>
       <c r="J4" t="n">
-        <v>814.070531607324</v>
+        <v>814.0705316073235</v>
       </c>
       <c r="K4" t="n">
-        <v>814.070531607324</v>
+        <v>814.0705316073233</v>
       </c>
       <c r="L4" t="n">
-        <v>814.070531607324</v>
+        <v>814.0705316073233</v>
       </c>
       <c r="M4" t="n">
-        <v>455.7437581809257</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="N4" t="n">
         <v>455.7437581809257</v>
       </c>
       <c r="O4" t="n">
-        <v>455.7437581809255</v>
+        <v>455.7437581809257</v>
       </c>
       <c r="P4" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809257</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
         <v>104.0103107265696</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>695.5005125138343</v>
+        <v>695.5005125138341</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263979</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.69403007473153</v>
+        <v>13.6940300747313</v>
       </c>
       <c r="J4" t="n">
-        <v>442.0497281061944</v>
+        <v>442.0497281061942</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263979</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="I11" t="n">
-        <v>102.683795063111</v>
+        <v>102.6837950631111</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>114.7651019462576</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H12" t="n">
-        <v>97.78740528786001</v>
+        <v>97.78740528786003</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.275709104097444</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V12" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>122.0408110503561</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="I13" t="n">
         <v>117.7338241830654</v>
@@ -28296,25 +28296,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U13" t="n">
-        <v>75.02036795967621</v>
+        <v>75.02036795967564</v>
       </c>
       <c r="V13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="I14" t="n">
-        <v>102.683795063111</v>
+        <v>102.6837950631111</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>43.57596599224927</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.78740528786003</v>
       </c>
       <c r="I15" t="n">
-        <v>37.89022697185281</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.275709104097444</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="U15" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="W15" t="n">
-        <v>131.0863142700156</v>
+        <v>84.15058407850287</v>
       </c>
       <c r="X15" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="E16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="F16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="H16" t="n">
-        <v>70.33180236464408</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="I16" t="n">
-        <v>117.7338241830654</v>
+        <v>117.7338241830655</v>
       </c>
       <c r="J16" t="n">
-        <v>4.688565595031974</v>
+        <v>4.688565595032017</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0863142700156</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V16" t="n">
-        <v>131.0863142700156</v>
+        <v>70.33180236464395</v>
       </c>
       <c r="W16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="X16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.0863142700156</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="C17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="D17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="E17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="F17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="G17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I17" t="n">
         <v>102.6837950631111</v>
@@ -28618,19 +28618,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.79835131203326</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8475349287469</v>
@@ -28691,25 +28691,25 @@
         <v>7.275709104097473</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>217.8864193779118</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>237.9324420783138</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>80.57825771171525</v>
+        <v>31.48365086991851</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I19" t="n">
         <v>117.7338241830654</v>
@@ -28776,16 +28776,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W19" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="C20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="D20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="E20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="F20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="G20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I20" t="n">
         <v>102.6837950631111</v>
@@ -28855,19 +28855,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,10 +28889,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H21" t="n">
         <v>97.78740528786003</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9882079562637</v>
+        <v>69.2328719842404</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28962,25 +28962,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H22" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,16 +29010,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.5868149876011</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>237.9324420783138</v>
+        <v>124.5885638937887</v>
       </c>
       <c r="V22" t="n">
-        <v>124.8887932052774</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="C23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="D23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="E23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="F23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="G23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I23" t="n">
         <v>102.6837950631111</v>
@@ -29092,19 +29092,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
     </row>
     <row r="24">
@@ -29117,19 +29117,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H24" t="n">
         <v>97.78740528786003</v>
@@ -29165,25 +29165,25 @@
         <v>7.275709104097473</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T24" t="n">
         <v>194.1348704778385</v>
       </c>
       <c r="U24" t="n">
-        <v>63.71907168699846</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>8.813370966125632</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29196,22 +29196,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>103.9707230987026</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I25" t="n">
         <v>117.7338241830654</v>
@@ -29244,19 +29244,19 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S25" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.5868149876011</v>
+        <v>79.05159764612395</v>
       </c>
       <c r="U25" t="n">
-        <v>237.9324420783138</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V25" t="n">
-        <v>237.9324420783138</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>237.9324420783138</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I26" t="n">
         <v>102.6837950631111</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y26" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="27">
@@ -29430,43 +29430,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="J28" t="n">
-        <v>106.846127808298</v>
+        <v>73.80835399930837</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>73.80835399931098</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="S28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I29" t="n">
         <v>102.6837950631111</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y29" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="30">
@@ -29667,37 +29667,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="J31" t="n">
-        <v>73.80835399931101</v>
+        <v>73.80835399930848</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>106.846127808298</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="R31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="S31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I32" t="n">
         <v>102.6837950631111</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="33">
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="J34" t="n">
-        <v>106.8461278082981</v>
+        <v>73.80835399930791</v>
       </c>
       <c r="K34" t="n">
-        <v>73.80835399930979</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="S34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="C35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="D35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="E35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="F35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="G35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="H35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="I35" t="n">
         <v>102.6837950631111</v>
@@ -30037,22 +30037,22 @@
         <v>145.3066306760584</v>
       </c>
       <c r="T35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y35" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
     </row>
     <row r="36">
@@ -30065,25 +30065,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.78740528786003</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,16 +30116,16 @@
         <v>143.8959572312332</v>
       </c>
       <c r="T36" t="n">
-        <v>79.1313914963293</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>194.0254600666856</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,16 +30156,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T37" t="n">
-        <v>44.85932736513109</v>
+        <v>2.968008636134243</v>
       </c>
       <c r="U37" t="n">
-        <v>210.8564385348677</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W37" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="X37" t="n">
-        <v>210.8564385348677</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.8564385348677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30308,10 +30308,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>4.751374502038942</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.8475349287469</v>
@@ -30320,7 +30320,7 @@
         <v>97.78740528786003</v>
       </c>
       <c r="I39" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>187.7108138672757</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30432,19 +30432,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>116.2922524487077</v>
       </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>210.8564385348678</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>210.8564385348678</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.78740528786003</v>
       </c>
       <c r="I42" t="n">
         <v>37.89022697185283</v>
@@ -30596,7 +30596,7 @@
         <v>210.8564385348678</v>
       </c>
       <c r="V42" t="n">
-        <v>29.47584454431836</v>
+        <v>67.5359741852044</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30618,19 +30618,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H43" t="n">
         <v>151.076361011726</v>
@@ -30639,7 +30639,7 @@
         <v>117.7338241830654</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,19 +30669,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>148.6610644726553</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U43" t="n">
-        <v>210.8564385348678</v>
+        <v>85.26779409577711</v>
       </c>
       <c r="V43" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="W43" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>210.8564385348678</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8475349287469</v>
+        <v>74.8116832893019</v>
       </c>
       <c r="H45" t="n">
         <v>97.78740528786003</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.275709104097473</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>143.8959572312332</v>
@@ -30830,7 +30830,7 @@
         <v>194.1348704778385</v>
       </c>
       <c r="U45" t="n">
-        <v>142.5448777913259</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30870,13 +30870,13 @@
         <v>166.7367981063846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I46" t="n">
         <v>117.7338241830654</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T46" t="n">
-        <v>209.8162135388103</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4.008996412951376</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W46" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>210.8564385348678</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.795981959854608</v>
+        <v>2.795981959854607</v>
       </c>
       <c r="H11" t="n">
         <v>28.63435024636101</v>
       </c>
       <c r="I11" t="n">
-        <v>107.7920945072949</v>
+        <v>107.7920945072948</v>
       </c>
       <c r="J11" t="n">
-        <v>237.3054738652103</v>
+        <v>237.3054738652102</v>
       </c>
       <c r="K11" t="n">
-        <v>355.6593902258559</v>
+        <v>355.6593902258558</v>
       </c>
       <c r="L11" t="n">
-        <v>441.2269231297565</v>
+        <v>441.2269231297564</v>
       </c>
       <c r="M11" t="n">
-        <v>490.9499673083208</v>
+        <v>490.9499673083207</v>
       </c>
       <c r="N11" t="n">
-        <v>498.8940510517578</v>
+        <v>498.8940510517576</v>
       </c>
       <c r="O11" t="n">
-        <v>471.0915054384535</v>
+        <v>471.0915054384533</v>
       </c>
       <c r="P11" t="n">
-        <v>402.0657008045428</v>
+        <v>402.0657008045426</v>
       </c>
       <c r="Q11" t="n">
         <v>301.9345968672495</v>
       </c>
       <c r="R11" t="n">
-        <v>175.6331017857172</v>
+        <v>175.6331017857171</v>
       </c>
       <c r="S11" t="n">
-        <v>63.71343891018695</v>
+        <v>63.71343891018693</v>
       </c>
       <c r="T11" t="n">
         <v>12.23941102926355</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2236785567883686</v>
+        <v>0.2236785567883685</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.495982234463719</v>
       </c>
       <c r="H12" t="n">
-        <v>14.44803894863645</v>
+        <v>14.44803894863644</v>
       </c>
       <c r="I12" t="n">
-        <v>51.50640587956227</v>
+        <v>51.50640587956225</v>
       </c>
       <c r="J12" t="n">
         <v>141.3375145288727</v>
       </c>
       <c r="K12" t="n">
-        <v>241.5683242379419</v>
+        <v>241.5683242379418</v>
       </c>
       <c r="L12" t="n">
-        <v>324.8184233207299</v>
+        <v>324.8184233207298</v>
       </c>
       <c r="M12" t="n">
-        <v>379.0477793200396</v>
+        <v>379.0477793200395</v>
       </c>
       <c r="N12" t="n">
-        <v>389.0800461467723</v>
+        <v>389.0800461467722</v>
       </c>
       <c r="O12" t="n">
-        <v>355.9322292673393</v>
+        <v>355.9322292673392</v>
       </c>
       <c r="P12" t="n">
-        <v>285.6669935266729</v>
+        <v>285.6669935266727</v>
       </c>
       <c r="Q12" t="n">
         <v>190.9608199641758</v>
       </c>
       <c r="R12" t="n">
-        <v>92.88212504854569</v>
+        <v>92.88212504854566</v>
       </c>
       <c r="S12" t="n">
-        <v>27.78721387260459</v>
+        <v>27.78721387260458</v>
       </c>
       <c r="T12" t="n">
-        <v>6.029858216983147</v>
+        <v>6.029858216983144</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09841988384629735</v>
+        <v>0.09841988384629732</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>11.15081149571361</v>
       </c>
       <c r="I13" t="n">
-        <v>37.71665074419286</v>
+        <v>37.71665074419285</v>
       </c>
       <c r="J13" t="n">
-        <v>88.6706145216408</v>
+        <v>88.67061452164077</v>
       </c>
       <c r="K13" t="n">
         <v>145.7130581955213</v>
       </c>
       <c r="L13" t="n">
-        <v>186.4625472401844</v>
+        <v>186.4625472401843</v>
       </c>
       <c r="M13" t="n">
-        <v>196.5986120864925</v>
+        <v>196.5986120864924</v>
       </c>
       <c r="N13" t="n">
-        <v>191.92393651058</v>
+        <v>191.9239365105799</v>
       </c>
       <c r="O13" t="n">
-        <v>177.2728191568049</v>
+        <v>177.2728191568048</v>
       </c>
       <c r="P13" t="n">
-        <v>151.6875216144926</v>
+        <v>151.6875216144925</v>
       </c>
       <c r="Q13" t="n">
         <v>105.020577389589</v>
       </c>
       <c r="R13" t="n">
-        <v>56.3925497523512</v>
+        <v>56.39254975235119</v>
       </c>
       <c r="S13" t="n">
         <v>21.85695872932819</v>
       </c>
       <c r="T13" t="n">
-        <v>5.358774440680361</v>
+        <v>5.358774440680359</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06840988647677067</v>
+        <v>0.06840988647677064</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.795981959854608</v>
+        <v>2.795981959854607</v>
       </c>
       <c r="H14" t="n">
-        <v>28.63435024636101</v>
+        <v>28.634350246361</v>
       </c>
       <c r="I14" t="n">
-        <v>107.7920945072949</v>
+        <v>107.7920945072948</v>
       </c>
       <c r="J14" t="n">
-        <v>237.3054738652103</v>
+        <v>237.3054738652102</v>
       </c>
       <c r="K14" t="n">
-        <v>355.6593902258559</v>
+        <v>355.6593902258558</v>
       </c>
       <c r="L14" t="n">
-        <v>441.2269231297565</v>
+        <v>441.2269231297562</v>
       </c>
       <c r="M14" t="n">
-        <v>490.9499673083208</v>
+        <v>490.9499673083206</v>
       </c>
       <c r="N14" t="n">
-        <v>498.8940510517578</v>
+        <v>498.8940510517576</v>
       </c>
       <c r="O14" t="n">
-        <v>471.0915054384535</v>
+        <v>471.0915054384533</v>
       </c>
       <c r="P14" t="n">
-        <v>402.0657008045428</v>
+        <v>402.0657008045426</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.9345968672495</v>
+        <v>301.9345968672494</v>
       </c>
       <c r="R14" t="n">
-        <v>175.6331017857172</v>
+        <v>175.6331017857171</v>
       </c>
       <c r="S14" t="n">
-        <v>63.71343891018695</v>
+        <v>63.71343891018692</v>
       </c>
       <c r="T14" t="n">
         <v>12.23941102926355</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2236785567883686</v>
+        <v>0.2236785567883685</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.495982234463719</v>
+        <v>1.495982234463718</v>
       </c>
       <c r="H15" t="n">
-        <v>14.44803894863645</v>
+        <v>14.44803894863644</v>
       </c>
       <c r="I15" t="n">
-        <v>51.50640587956227</v>
+        <v>51.50640587956224</v>
       </c>
       <c r="J15" t="n">
-        <v>141.3375145288727</v>
+        <v>141.3375145288726</v>
       </c>
       <c r="K15" t="n">
-        <v>241.5683242379419</v>
+        <v>241.5683242379418</v>
       </c>
       <c r="L15" t="n">
-        <v>324.8184233207299</v>
+        <v>324.8184233207298</v>
       </c>
       <c r="M15" t="n">
-        <v>379.0477793200396</v>
+        <v>379.0477793200395</v>
       </c>
       <c r="N15" t="n">
-        <v>389.0800461467723</v>
+        <v>389.0800461467721</v>
       </c>
       <c r="O15" t="n">
-        <v>355.9322292673393</v>
+        <v>355.9322292673392</v>
       </c>
       <c r="P15" t="n">
-        <v>285.6669935266729</v>
+        <v>285.6669935266727</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.9608199641758</v>
+        <v>190.9608199641757</v>
       </c>
       <c r="R15" t="n">
-        <v>92.88212504854569</v>
+        <v>92.88212504854565</v>
       </c>
       <c r="S15" t="n">
-        <v>27.78721387260459</v>
+        <v>27.78721387260457</v>
       </c>
       <c r="T15" t="n">
-        <v>6.029858216983147</v>
+        <v>6.029858216983143</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09841988384629735</v>
+        <v>0.09841988384629731</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>11.15081149571361</v>
       </c>
       <c r="I16" t="n">
-        <v>37.71665074419286</v>
+        <v>37.71665074419284</v>
       </c>
       <c r="J16" t="n">
-        <v>88.6706145216408</v>
+        <v>88.67061452164076</v>
       </c>
       <c r="K16" t="n">
-        <v>145.7130581955213</v>
+        <v>145.7130581955212</v>
       </c>
       <c r="L16" t="n">
-        <v>186.4625472401844</v>
+        <v>186.4625472401843</v>
       </c>
       <c r="M16" t="n">
-        <v>196.5986120864925</v>
+        <v>196.5986120864924</v>
       </c>
       <c r="N16" t="n">
-        <v>191.92393651058</v>
+        <v>191.9239365105799</v>
       </c>
       <c r="O16" t="n">
-        <v>177.2728191568049</v>
+        <v>177.2728191568048</v>
       </c>
       <c r="P16" t="n">
-        <v>151.6875216144926</v>
+        <v>151.6875216144925</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.020577389589</v>
+        <v>105.0205773895889</v>
       </c>
       <c r="R16" t="n">
-        <v>56.3925497523512</v>
+        <v>56.39254975235117</v>
       </c>
       <c r="S16" t="n">
-        <v>21.85695872932819</v>
+        <v>21.85695872932818</v>
       </c>
       <c r="T16" t="n">
-        <v>5.358774440680361</v>
+        <v>5.358774440680358</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06840988647677067</v>
+        <v>0.06840988647677063</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.25956933852399</v>
+        <v>56.2595693385239</v>
       </c>
       <c r="K11" t="n">
-        <v>135.5695391808754</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L11" t="n">
-        <v>205.4605081597692</v>
+        <v>205.4605081597691</v>
       </c>
       <c r="M11" t="n">
-        <v>260.6037340810481</v>
+        <v>260.6037340810479</v>
       </c>
       <c r="N11" t="n">
-        <v>269.4809874551669</v>
+        <v>269.4809874551667</v>
       </c>
       <c r="O11" t="n">
-        <v>240.9932940167668</v>
+        <v>240.9932940167666</v>
       </c>
       <c r="P11" t="n">
-        <v>170.8327050492733</v>
+        <v>170.8327050492731</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.62890699280004</v>
+        <v>79.62890699279998</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5909232026149</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K12" t="n">
-        <v>103.7268852635829</v>
+        <v>103.7268852635828</v>
       </c>
       <c r="L12" t="n">
-        <v>186.2640435408558</v>
+        <v>186.2640435408557</v>
       </c>
       <c r="M12" t="n">
-        <v>236.9137453980213</v>
+        <v>236.9137453980212</v>
       </c>
       <c r="N12" t="n">
-        <v>257.738334063439</v>
+        <v>257.7383340634389</v>
       </c>
       <c r="O12" t="n">
-        <v>213.3359848228949</v>
+        <v>213.3359848228948</v>
       </c>
       <c r="P12" t="n">
-        <v>151.6925861123426</v>
+        <v>151.6925861123425</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.5667418704721</v>
+        <v>128.5667418704714</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>123.4435663696385</v>
+        <v>123.4435663696384</v>
       </c>
       <c r="L13" t="n">
         <v>214.0525725005005</v>
       </c>
       <c r="M13" t="n">
-        <v>236.1824890483331</v>
+        <v>236.182489048333</v>
       </c>
       <c r="N13" t="n">
-        <v>236.0561088898086</v>
+        <v>236.0561088898085</v>
       </c>
       <c r="O13" t="n">
-        <v>201.8579470708446</v>
+        <v>201.8579470708445</v>
       </c>
       <c r="P13" t="n">
-        <v>148.9660808793861</v>
+        <v>148.966080879386</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.85853413789459</v>
+        <v>18.85853413789457</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.25956933852399</v>
+        <v>56.25956933852387</v>
       </c>
       <c r="K14" t="n">
-        <v>135.5695391808754</v>
+        <v>135.5695391808752</v>
       </c>
       <c r="L14" t="n">
-        <v>205.4605081597692</v>
+        <v>205.460508159769</v>
       </c>
       <c r="M14" t="n">
-        <v>260.6037340810481</v>
+        <v>260.6037340810478</v>
       </c>
       <c r="N14" t="n">
-        <v>269.4809874551669</v>
+        <v>269.4809874551667</v>
       </c>
       <c r="O14" t="n">
-        <v>240.9932940167668</v>
+        <v>240.9932940167666</v>
       </c>
       <c r="P14" t="n">
-        <v>170.8327050492733</v>
+        <v>170.832705049273</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.62890699280004</v>
+        <v>79.62890699279993</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.49988786220604</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K15" t="n">
-        <v>103.7268852635829</v>
+        <v>103.7268852635828</v>
       </c>
       <c r="L15" t="n">
-        <v>186.2640435408558</v>
+        <v>186.2640435408556</v>
       </c>
       <c r="M15" t="n">
-        <v>295.6016881272445</v>
+        <v>236.9137453980211</v>
       </c>
       <c r="N15" t="n">
-        <v>257.738334063439</v>
+        <v>257.7383340634389</v>
       </c>
       <c r="O15" t="n">
-        <v>358.3267734263982</v>
+        <v>213.3359848228947</v>
       </c>
       <c r="P15" t="n">
-        <v>151.6925861123426</v>
+        <v>229.2802821046606</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.9790458781543</v>
+        <v>50.97904587815421</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>123.4435663696385</v>
+        <v>123.4435663696384</v>
       </c>
       <c r="L16" t="n">
-        <v>214.0525725005005</v>
+        <v>214.0525725005004</v>
       </c>
       <c r="M16" t="n">
-        <v>236.1824890483331</v>
+        <v>236.182489048333</v>
       </c>
       <c r="N16" t="n">
-        <v>236.0561088898086</v>
+        <v>236.0561088898085</v>
       </c>
       <c r="O16" t="n">
-        <v>201.8579470708446</v>
+        <v>201.8579470708445</v>
       </c>
       <c r="P16" t="n">
-        <v>148.9660808793861</v>
+        <v>148.966080879386</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.85853413789459</v>
+        <v>18.85853413789455</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>151.6925861123425</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.5667418704723</v>
+        <v>128.5667418704714</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>170.8327050492731</v>
       </c>
       <c r="Q20" t="n">
-        <v>79.62890699280004</v>
+        <v>79.62890699279998</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>213.3359848228948</v>
       </c>
       <c r="P21" t="n">
-        <v>151.6925861123425</v>
+        <v>229.2802821046597</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.5667418704719</v>
+        <v>50.97904587815424</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>110.4823954930164</v>
+        <v>110.482395493015</v>
       </c>
       <c r="K23" t="n">
         <v>135.5695391808753</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.49988786220598</v>
+        <v>62.32415761357448</v>
       </c>
       <c r="K24" t="n">
-        <v>361.6284427508016</v>
+        <v>103.7268852635828</v>
       </c>
       <c r="L24" t="n">
         <v>186.2640435408557</v>
@@ -36455,7 +36455,7 @@
         <v>151.6925861123425</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.97904587815424</v>
+        <v>261.0563336140033</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>459.71495175204</v>
       </c>
       <c r="L26" t="n">
-        <v>205.4605081597691</v>
+        <v>623.1217227102195</v>
       </c>
       <c r="M26" t="n">
-        <v>260.6037340810479</v>
+        <v>710.1172675738804</v>
       </c>
       <c r="N26" t="n">
-        <v>665.8862231220679</v>
+        <v>706.8279118671509</v>
       </c>
       <c r="O26" t="n">
-        <v>621.793475279512</v>
+        <v>247.7907373225313</v>
       </c>
       <c r="P26" t="n">
-        <v>492.6314132207557</v>
+        <v>170.8327050492731</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.9438976527047</v>
+        <v>79.62890699279998</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>368.1921222761614</v>
       </c>
       <c r="L27" t="n">
-        <v>186.2640435408557</v>
+        <v>557.1043888443148</v>
       </c>
       <c r="M27" t="n">
         <v>236.9137453980212</v>
       </c>
       <c r="N27" t="n">
-        <v>308.9853189602217</v>
+        <v>257.7383340634389</v>
       </c>
       <c r="O27" t="n">
-        <v>607.1983040996242</v>
+        <v>287.6049436929478</v>
       </c>
       <c r="P27" t="n">
         <v>470.1553547522797</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>102.157562213266</v>
+        <v>69.11978840427636</v>
       </c>
       <c r="K28" t="n">
         <v>123.4435663696384</v>
       </c>
       <c r="L28" t="n">
-        <v>214.0525725005005</v>
+        <v>320.8987003087987</v>
       </c>
       <c r="M28" t="n">
         <v>236.182489048333</v>
       </c>
       <c r="N28" t="n">
-        <v>309.8644628891195</v>
+        <v>236.0561088898085</v>
       </c>
       <c r="O28" t="n">
         <v>201.8579470708445</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>225.3561845105977</v>
+        <v>175.4988591247813</v>
       </c>
       <c r="K29" t="n">
-        <v>459.71495175204</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L29" t="n">
         <v>623.1217227102195</v>
       </c>
       <c r="M29" t="n">
-        <v>260.6037340810479</v>
+        <v>710.1172675738804</v>
       </c>
       <c r="N29" t="n">
-        <v>269.4809874551667</v>
+        <v>706.8279118671509</v>
       </c>
       <c r="O29" t="n">
         <v>621.793475279512</v>
       </c>
       <c r="P29" t="n">
-        <v>492.6314132207557</v>
+        <v>170.8327050492731</v>
       </c>
       <c r="Q29" t="n">
-        <v>270.6879187691554</v>
+        <v>79.62890699279998</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>140.5909232026148</v>
+        <v>31.07485053178759</v>
       </c>
       <c r="K30" t="n">
         <v>368.1921222761614</v>
@@ -36917,19 +36917,19 @@
         <v>557.1043888443148</v>
       </c>
       <c r="M30" t="n">
-        <v>311.1827042680741</v>
+        <v>236.9137453980212</v>
       </c>
       <c r="N30" t="n">
         <v>257.7383340634389</v>
       </c>
       <c r="O30" t="n">
-        <v>213.3359848228948</v>
+        <v>607.1983040996242</v>
       </c>
       <c r="P30" t="n">
         <v>470.1553547522797</v>
       </c>
       <c r="Q30" t="n">
-        <v>261.0563336140033</v>
+        <v>50.97904587815424</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.11978840427901</v>
+        <v>69.11978840427648</v>
       </c>
       <c r="K31" t="n">
         <v>123.4435663696384</v>
       </c>
       <c r="L31" t="n">
-        <v>320.8987003087985</v>
+        <v>214.0525725005005</v>
       </c>
       <c r="M31" t="n">
         <v>236.182489048333</v>
@@ -37008,7 +37008,7 @@
         <v>148.966080879386</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.85853413789457</v>
+        <v>125.7046619461928</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>56.2595693385239</v>
+        <v>225.3561845105977</v>
       </c>
       <c r="K32" t="n">
         <v>459.71495175204</v>
@@ -37075,13 +37075,13 @@
         <v>623.1217227102195</v>
       </c>
       <c r="M32" t="n">
-        <v>505.2111447889757</v>
+        <v>710.1172675738804</v>
       </c>
       <c r="N32" t="n">
         <v>706.8279118671509</v>
       </c>
       <c r="O32" t="n">
-        <v>621.793475279512</v>
+        <v>240.9932940167666</v>
       </c>
       <c r="P32" t="n">
         <v>170.8327050492731</v>
@@ -37090,7 +37090,7 @@
         <v>79.62890699279998</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.797443305764189</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>368.1921222761614</v>
       </c>
       <c r="L33" t="n">
-        <v>186.2640435408557</v>
+        <v>557.1043888443148</v>
       </c>
       <c r="M33" t="n">
         <v>236.9137453980212</v>
       </c>
       <c r="N33" t="n">
-        <v>308.9853189602217</v>
+        <v>257.7383340634389</v>
       </c>
       <c r="O33" t="n">
-        <v>607.1983040996242</v>
+        <v>287.6049436929478</v>
       </c>
       <c r="P33" t="n">
         <v>470.1553547522797</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>102.1575622132661</v>
+        <v>69.11978840427591</v>
       </c>
       <c r="K34" t="n">
-        <v>197.2519203689482</v>
+        <v>123.4435663696384</v>
       </c>
       <c r="L34" t="n">
         <v>214.0525725005005</v>
       </c>
       <c r="M34" t="n">
-        <v>236.182489048333</v>
+        <v>343.0286168566313</v>
       </c>
       <c r="N34" t="n">
         <v>236.0561088898085</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>225.3561845105977</v>
+        <v>56.2595693385239</v>
       </c>
       <c r="K35" t="n">
-        <v>135.5695391808753</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="L35" t="n">
-        <v>205.4605081597691</v>
+        <v>271.018188389767</v>
       </c>
       <c r="M35" t="n">
         <v>260.6037340810479</v>
@@ -37321,10 +37321,10 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P35" t="n">
-        <v>175.1529984473437</v>
+        <v>170.8327050492731</v>
       </c>
       <c r="Q35" t="n">
-        <v>291.9438976527047</v>
+        <v>79.62890699279998</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>140.5909232026148</v>
       </c>
       <c r="K36" t="n">
-        <v>103.7268852635828</v>
+        <v>368.1921222761614</v>
       </c>
       <c r="L36" t="n">
         <v>186.2640435408557</v>
@@ -37394,16 +37394,16 @@
         <v>236.9137453980212</v>
       </c>
       <c r="N36" t="n">
-        <v>455.7437581809257</v>
+        <v>257.7383340634389</v>
       </c>
       <c r="O36" t="n">
-        <v>455.7437581809257</v>
+        <v>213.3359848228948</v>
       </c>
       <c r="P36" t="n">
         <v>151.6925861123425</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.88544362500311</v>
+        <v>249.8334040879413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>225.3561845105977</v>
       </c>
       <c r="K38" t="n">
-        <v>139.8898325789459</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L38" t="n">
         <v>205.4605081597691</v>
@@ -37558,7 +37558,7 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P38" t="n">
-        <v>170.8327050492731</v>
+        <v>175.1529984473437</v>
       </c>
       <c r="Q38" t="n">
         <v>291.9438976527047</v>
@@ -37795,13 +37795,13 @@
         <v>240.9932940167666</v>
       </c>
       <c r="P41" t="n">
-        <v>175.1529984473428</v>
+        <v>170.8327050492731</v>
       </c>
       <c r="Q41" t="n">
-        <v>291.9438976527047</v>
+        <v>270.5002072062079</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>25.76398384456746</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.78205862054868</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K42" t="n">
-        <v>103.7268852635828</v>
+        <v>356.9691927501004</v>
       </c>
       <c r="L42" t="n">
         <v>186.2640435408557</v>
@@ -37874,7 +37874,7 @@
         <v>213.3359848228948</v>
       </c>
       <c r="P42" t="n">
-        <v>455.7437581809255</v>
+        <v>151.6925861123425</v>
       </c>
       <c r="Q42" t="n">
         <v>261.0563336140033</v>
@@ -38017,7 +38017,7 @@
         <v>225.3561845105977</v>
       </c>
       <c r="K44" t="n">
-        <v>326.4408393942825</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L44" t="n">
         <v>205.4605081597691</v>
@@ -38035,7 +38035,7 @@
         <v>170.8327050492731</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.62890699279998</v>
+        <v>270.5002072062079</v>
       </c>
       <c r="R44" t="n">
         <v>25.76398384456746</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.49988786220598</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K45" t="n">
         <v>103.7268852635828</v>
       </c>
       <c r="L45" t="n">
-        <v>346.7673735848768</v>
+        <v>186.2640435408557</v>
       </c>
       <c r="M45" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809257</v>
       </c>
       <c r="N45" t="n">
-        <v>257.7383340634389</v>
+        <v>455.7437581809257</v>
       </c>
       <c r="O45" t="n">
-        <v>213.3359848228948</v>
+        <v>259.82014314487</v>
       </c>
       <c r="P45" t="n">
         <v>151.6925861123425</v>
       </c>
       <c r="Q45" t="n">
-        <v>261.0563336140033</v>
+        <v>50.97904587815424</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
